--- a/docs/00-天翼云集成实施基本信息表模板(网络和服务器设备表含公式)20230101(1).xlsx
+++ b/docs/00-天翼云集成实施基本信息表模板(网络和服务器设备表含公式)20230101(1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://idealsh.sharepoint.com/sites/Ideal-1/Shared Documents/工具链/交维材料自动化生成模板/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\python\jw3\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E74B213E-BCDB-46A0-B5CB-0B7017E15758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{135EC636-0ED2-45EB-9B53-73F72C541EE9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471415C9-E7C6-4EAF-A2B2-D933D36FBAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="858" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9705" yWindow="3105" windowWidth="21600" windowHeight="11295" tabRatio="858" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明（请勿修改此页内容）" sheetId="21" r:id="rId1"/>
@@ -6056,11 +6056,11 @@
     <xf numFmtId="49" fontId="30" fillId="0" borderId="5" xfId="200" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6861,15 +6861,15 @@
       <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="70.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="70.625" customWidth="1"/>
+    <col min="3" max="3" width="22.125" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25.2" customHeight="1">
+    <row r="1" spans="1:3" ht="25.15" customHeight="1">
       <c r="A1" s="198" t="s">
         <v>0</v>
       </c>
@@ -6878,7 +6878,7 @@
       </c>
       <c r="C1" s="210"/>
     </row>
-    <row r="2" spans="1:3" ht="25.2" customHeight="1">
+    <row r="2" spans="1:3" ht="25.15" customHeight="1">
       <c r="A2" s="198" t="s">
         <v>2</v>
       </c>
@@ -6887,7 +6887,7 @@
       </c>
       <c r="C2" s="210"/>
     </row>
-    <row r="3" spans="1:3" ht="25.2" customHeight="1">
+    <row r="3" spans="1:3" ht="25.15" customHeight="1">
       <c r="A3" s="198" t="s">
         <v>4</v>
       </c>
@@ -6905,7 +6905,7 @@
       </c>
       <c r="C4" s="210"/>
     </row>
-    <row r="5" spans="1:3" ht="52.2" customHeight="1">
+    <row r="5" spans="1:3" ht="52.15" customHeight="1">
       <c r="A5" s="212" t="s">
         <v>8</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="229.2" customHeight="1">
+    <row r="7" spans="1:3" ht="229.15" customHeight="1">
       <c r="A7" s="160">
         <v>44783</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="55.2" customHeight="1">
+    <row r="8" spans="1:3" ht="55.15" customHeight="1">
       <c r="A8" s="160">
         <v>44784</v>
       </c>
@@ -7035,17 +7035,17 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="37.88671875" customWidth="1"/>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="37.875" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="40" customFormat="1" ht="14.4">
+    <row r="1" spans="1:6" s="40" customFormat="1">
       <c r="A1" s="41" t="s">
         <v>734</v>
       </c>
@@ -7107,20 +7107,20 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="26.875" customWidth="1"/>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="6" width="21.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="5" max="6" width="21.5" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="9" max="9" width="13.875" customWidth="1"/>
+    <col min="10" max="10" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4">
+    <row r="1" spans="1:10">
       <c r="A1" s="35" t="s">
         <v>735</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="20" customFormat="1" ht="28.8">
+    <row r="2" spans="1:10" s="20" customFormat="1" ht="27">
       <c r="A2" s="37" t="s">
         <v>748</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>65258</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="20" customFormat="1" ht="28.8">
+    <row r="3" spans="1:10" s="20" customFormat="1" ht="27">
       <c r="A3" s="37" t="s">
         <v>748</v>
       </c>
@@ -7241,18 +7241,18 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="54.88671875" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" customWidth="1"/>
-    <col min="5" max="5" width="28.109375" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" customWidth="1"/>
-    <col min="8" max="8" width="46.44140625" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="54.875" customWidth="1"/>
+    <col min="2" max="2" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="28.125" customWidth="1"/>
+    <col min="6" max="6" width="5.5" customWidth="1"/>
+    <col min="7" max="7" width="10.375" customWidth="1"/>
+    <col min="8" max="8" width="46.5" customWidth="1"/>
+    <col min="9" max="9" width="19.625" customWidth="1"/>
+    <col min="10" max="10" width="13.875" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
     <col min="13" max="13" width="21" customWidth="1"/>
@@ -7586,7 +7586,7 @@
       <c r="L14" s="23"/>
       <c r="M14" s="23"/>
     </row>
-    <row r="15" spans="1:13" ht="14.4">
+    <row r="15" spans="1:13">
       <c r="A15" s="28" t="s">
         <v>789</v>
       </c>
@@ -7617,7 +7617,7 @@
       <c r="L15" s="23"/>
       <c r="M15" s="23"/>
     </row>
-    <row r="16" spans="1:13" ht="14.4">
+    <row r="16" spans="1:13">
       <c r="A16" s="26" t="s">
         <v>799</v>
       </c>
@@ -8465,7 +8465,7 @@
       <c r="L45" s="23"/>
       <c r="M45" s="23"/>
     </row>
-    <row r="46" spans="1:13" ht="14.4">
+    <row r="46" spans="1:13">
       <c r="A46" s="28" t="s">
         <v>820</v>
       </c>
@@ -8496,7 +8496,7 @@
       <c r="L46" s="23"/>
       <c r="M46" s="23"/>
     </row>
-    <row r="47" spans="1:13" ht="14.4">
+    <row r="47" spans="1:13">
       <c r="A47" s="28" t="s">
         <v>782</v>
       </c>
@@ -8527,7 +8527,7 @@
       <c r="L47" s="23"/>
       <c r="M47" s="23"/>
     </row>
-    <row r="48" spans="1:13" ht="14.4">
+    <row r="48" spans="1:13">
       <c r="A48" s="28" t="s">
         <v>833</v>
       </c>
@@ -8558,7 +8558,7 @@
       <c r="L48" s="23"/>
       <c r="M48" s="23"/>
     </row>
-    <row r="49" spans="1:13" ht="14.4">
+    <row r="49" spans="1:13">
       <c r="A49" s="26" t="s">
         <v>836</v>
       </c>
@@ -8575,7 +8575,7 @@
       <c r="L49" s="23"/>
       <c r="M49" s="23"/>
     </row>
-    <row r="50" spans="1:13" ht="14.4">
+    <row r="50" spans="1:13">
       <c r="A50" s="28" t="s">
         <v>820</v>
       </c>
@@ -8606,7 +8606,7 @@
       <c r="L50" s="23"/>
       <c r="M50" s="23"/>
     </row>
-    <row r="51" spans="1:13" ht="14.4">
+    <row r="51" spans="1:13">
       <c r="A51" s="28" t="s">
         <v>782</v>
       </c>
@@ -8668,7 +8668,7 @@
       <c r="L52" s="23"/>
       <c r="M52" s="23"/>
     </row>
-    <row r="53" spans="1:13" ht="14.4">
+    <row r="53" spans="1:13">
       <c r="A53" s="28" t="s">
         <v>789</v>
       </c>
@@ -8699,7 +8699,7 @@
       <c r="L53" s="23"/>
       <c r="M53" s="23"/>
     </row>
-    <row r="54" spans="1:13" ht="14.4">
+    <row r="54" spans="1:13">
       <c r="A54" s="26" t="s">
         <v>843</v>
       </c>
@@ -8718,7 +8718,7 @@
       <c r="L54" s="23"/>
       <c r="M54" s="23"/>
     </row>
-    <row r="55" spans="1:13" ht="14.4">
+    <row r="55" spans="1:13">
       <c r="A55" s="28" t="s">
         <v>795</v>
       </c>
@@ -8749,7 +8749,7 @@
       <c r="L55" s="23"/>
       <c r="M55" s="23"/>
     </row>
-    <row r="56" spans="1:13" ht="14.4">
+    <row r="56" spans="1:13">
       <c r="A56" s="28" t="s">
         <v>782</v>
       </c>
@@ -8780,7 +8780,7 @@
       <c r="L56" s="23"/>
       <c r="M56" s="23"/>
     </row>
-    <row r="57" spans="1:13" ht="14.4">
+    <row r="57" spans="1:13">
       <c r="A57" s="28" t="s">
         <v>789</v>
       </c>
@@ -8811,7 +8811,7 @@
       <c r="L57" s="23"/>
       <c r="M57" s="23"/>
     </row>
-    <row r="58" spans="1:13" ht="14.4">
+    <row r="58" spans="1:13">
       <c r="A58" s="28" t="s">
         <v>833</v>
       </c>
@@ -8842,7 +8842,7 @@
       <c r="L58" s="23"/>
       <c r="M58" s="23"/>
     </row>
-    <row r="59" spans="1:13" ht="14.4">
+    <row r="59" spans="1:13">
       <c r="A59" s="26" t="s">
         <v>847</v>
       </c>
@@ -8861,7 +8861,7 @@
       <c r="L59" s="23"/>
       <c r="M59" s="23"/>
     </row>
-    <row r="60" spans="1:13" ht="14.4">
+    <row r="60" spans="1:13">
       <c r="A60" s="28" t="s">
         <v>776</v>
       </c>
@@ -8892,7 +8892,7 @@
       <c r="L60" s="23"/>
       <c r="M60" s="23"/>
     </row>
-    <row r="61" spans="1:13" ht="14.4">
+    <row r="61" spans="1:13">
       <c r="A61" s="28" t="s">
         <v>803</v>
       </c>
@@ -8923,7 +8923,7 @@
       <c r="L61" s="23"/>
       <c r="M61" s="23"/>
     </row>
-    <row r="62" spans="1:13" ht="14.4">
+    <row r="62" spans="1:13">
       <c r="A62" s="28" t="s">
         <v>782</v>
       </c>
@@ -8954,7 +8954,7 @@
       <c r="L62" s="23"/>
       <c r="M62" s="23"/>
     </row>
-    <row r="63" spans="1:13" ht="14.4">
+    <row r="63" spans="1:13">
       <c r="A63" s="28" t="s">
         <v>813</v>
       </c>
@@ -8985,7 +8985,7 @@
       <c r="L63" s="23"/>
       <c r="M63" s="23"/>
     </row>
-    <row r="64" spans="1:13" ht="14.4">
+    <row r="64" spans="1:13">
       <c r="A64" s="28" t="s">
         <v>789</v>
       </c>
@@ -9016,7 +9016,7 @@
       <c r="L64" s="23"/>
       <c r="M64" s="23"/>
     </row>
-    <row r="65" spans="1:13" ht="14.4">
+    <row r="65" spans="1:13">
       <c r="A65" s="28" t="s">
         <v>833</v>
       </c>
@@ -9047,7 +9047,7 @@
       <c r="L65" s="23"/>
       <c r="M65" s="23"/>
     </row>
-    <row r="66" spans="1:13" ht="14.4">
+    <row r="66" spans="1:13">
       <c r="A66" s="28" t="s">
         <v>852</v>
       </c>
@@ -9078,7 +9078,7 @@
       <c r="L66" s="23"/>
       <c r="M66" s="23"/>
     </row>
-    <row r="67" spans="1:13" ht="14.4">
+    <row r="67" spans="1:13">
       <c r="A67" s="26" t="s">
         <v>855</v>
       </c>
@@ -9095,7 +9095,7 @@
       <c r="L67" s="23"/>
       <c r="M67" s="23"/>
     </row>
-    <row r="68" spans="1:13" ht="14.4">
+    <row r="68" spans="1:13">
       <c r="A68" s="28" t="s">
         <v>776</v>
       </c>
@@ -9126,7 +9126,7 @@
       <c r="L68" s="23"/>
       <c r="M68" s="23"/>
     </row>
-    <row r="69" spans="1:13" ht="14.4">
+    <row r="69" spans="1:13">
       <c r="A69" s="28" t="s">
         <v>782</v>
       </c>
@@ -9157,7 +9157,7 @@
       <c r="L69" s="23"/>
       <c r="M69" s="23"/>
     </row>
-    <row r="70" spans="1:13" ht="14.4">
+    <row r="70" spans="1:13">
       <c r="A70" s="28" t="s">
         <v>833</v>
       </c>
@@ -9188,7 +9188,7 @@
       <c r="L70" s="23"/>
       <c r="M70" s="23"/>
     </row>
-    <row r="71" spans="1:13" ht="14.4">
+    <row r="71" spans="1:13">
       <c r="A71" s="23"/>
       <c r="B71" s="23"/>
       <c r="C71" s="23"/>
@@ -9203,7 +9203,7 @@
       <c r="L71" s="23"/>
       <c r="M71" s="23"/>
     </row>
-    <row r="72" spans="1:13" ht="14.4">
+    <row r="72" spans="1:13">
       <c r="A72" s="23"/>
       <c r="B72" s="23"/>
       <c r="C72" s="23"/>
@@ -9218,7 +9218,7 @@
       <c r="L72" s="23"/>
       <c r="M72" s="23"/>
     </row>
-    <row r="73" spans="1:13" ht="14.4">
+    <row r="73" spans="1:13">
       <c r="A73" s="23"/>
       <c r="B73" s="23"/>
       <c r="C73" s="23"/>
@@ -9233,7 +9233,7 @@
       <c r="L73" s="23"/>
       <c r="M73" s="23"/>
     </row>
-    <row r="74" spans="1:13" ht="14.4">
+    <row r="74" spans="1:13">
       <c r="A74" s="23"/>
       <c r="B74" s="23"/>
       <c r="C74" s="23"/>
@@ -9248,7 +9248,7 @@
       <c r="L74" s="23"/>
       <c r="M74" s="23"/>
     </row>
-    <row r="75" spans="1:13" ht="14.4">
+    <row r="75" spans="1:13">
       <c r="A75" s="23"/>
       <c r="B75" s="23"/>
       <c r="C75" s="23"/>
@@ -9263,7 +9263,7 @@
       <c r="L75" s="23"/>
       <c r="M75" s="23"/>
     </row>
-    <row r="76" spans="1:13" ht="14.4">
+    <row r="76" spans="1:13">
       <c r="A76" s="23"/>
       <c r="B76" s="23"/>
       <c r="C76" s="23"/>
@@ -9278,7 +9278,7 @@
       <c r="L76" s="23"/>
       <c r="M76" s="23"/>
     </row>
-    <row r="77" spans="1:13" ht="14.4">
+    <row r="77" spans="1:13">
       <c r="A77" s="23"/>
       <c r="B77" s="23"/>
       <c r="C77" s="23"/>
@@ -9293,7 +9293,7 @@
       <c r="L77" s="23"/>
       <c r="M77" s="23"/>
     </row>
-    <row r="78" spans="1:13" ht="14.4">
+    <row r="78" spans="1:13">
       <c r="A78" s="23"/>
       <c r="B78" s="23"/>
       <c r="C78" s="23"/>
@@ -9308,7 +9308,7 @@
       <c r="L78" s="23"/>
       <c r="M78" s="23"/>
     </row>
-    <row r="79" spans="1:13" ht="14.4">
+    <row r="79" spans="1:13">
       <c r="A79" s="23"/>
       <c r="B79" s="23"/>
       <c r="C79" s="23"/>
@@ -9323,7 +9323,7 @@
       <c r="L79" s="23"/>
       <c r="M79" s="23"/>
     </row>
-    <row r="80" spans="1:13" ht="14.4">
+    <row r="80" spans="1:13">
       <c r="A80" s="23"/>
       <c r="B80" s="23"/>
       <c r="C80" s="23"/>
@@ -9338,7 +9338,7 @@
       <c r="L80" s="23"/>
       <c r="M80" s="23"/>
     </row>
-    <row r="81" spans="1:13" ht="14.4">
+    <row r="81" spans="1:13">
       <c r="A81" s="23"/>
       <c r="B81" s="23"/>
       <c r="C81" s="23"/>
@@ -9353,7 +9353,7 @@
       <c r="L81" s="23"/>
       <c r="M81" s="23"/>
     </row>
-    <row r="82" spans="1:13" ht="14.4">
+    <row r="82" spans="1:13">
       <c r="A82" s="23"/>
       <c r="B82" s="23"/>
       <c r="C82" s="23"/>
@@ -9368,7 +9368,7 @@
       <c r="L82" s="23"/>
       <c r="M82" s="23"/>
     </row>
-    <row r="83" spans="1:13" ht="14.4">
+    <row r="83" spans="1:13">
       <c r="A83" s="23"/>
       <c r="B83" s="23"/>
       <c r="C83" s="23"/>
@@ -9383,7 +9383,7 @@
       <c r="L83" s="23"/>
       <c r="M83" s="23"/>
     </row>
-    <row r="84" spans="1:13" ht="14.4">
+    <row r="84" spans="1:13">
       <c r="A84" s="23"/>
       <c r="B84" s="23"/>
       <c r="C84" s="23"/>
@@ -9398,7 +9398,7 @@
       <c r="L84" s="23"/>
       <c r="M84" s="23"/>
     </row>
-    <row r="85" spans="1:13" ht="14.4">
+    <row r="85" spans="1:13">
       <c r="A85" s="23"/>
       <c r="B85" s="23"/>
       <c r="C85" s="23"/>
@@ -9413,7 +9413,7 @@
       <c r="L85" s="23"/>
       <c r="M85" s="23"/>
     </row>
-    <row r="86" spans="1:13" ht="14.4">
+    <row r="86" spans="1:13">
       <c r="A86" s="23"/>
       <c r="B86" s="23"/>
       <c r="C86" s="23"/>
@@ -9428,7 +9428,7 @@
       <c r="L86" s="23"/>
       <c r="M86" s="23"/>
     </row>
-    <row r="87" spans="1:13" ht="14.4">
+    <row r="87" spans="1:13">
       <c r="A87" s="23"/>
       <c r="B87" s="23"/>
       <c r="C87" s="23"/>
@@ -9443,7 +9443,7 @@
       <c r="L87" s="23"/>
       <c r="M87" s="23"/>
     </row>
-    <row r="88" spans="1:13" ht="14.4">
+    <row r="88" spans="1:13">
       <c r="A88" s="23"/>
       <c r="B88" s="23"/>
       <c r="C88" s="23"/>
@@ -9458,7 +9458,7 @@
       <c r="L88" s="23"/>
       <c r="M88" s="23"/>
     </row>
-    <row r="89" spans="1:13" ht="14.4">
+    <row r="89" spans="1:13">
       <c r="A89" s="23"/>
       <c r="B89" s="23"/>
       <c r="C89" s="23"/>
@@ -9473,7 +9473,7 @@
       <c r="L89" s="23"/>
       <c r="M89" s="23"/>
     </row>
-    <row r="90" spans="1:13" ht="14.4">
+    <row r="90" spans="1:13">
       <c r="A90" s="23"/>
       <c r="B90" s="23"/>
       <c r="C90" s="23"/>
@@ -9488,7 +9488,7 @@
       <c r="L90" s="23"/>
       <c r="M90" s="23"/>
     </row>
-    <row r="91" spans="1:13" ht="14.4">
+    <row r="91" spans="1:13">
       <c r="A91" s="23"/>
       <c r="B91" s="23"/>
       <c r="C91" s="23"/>
@@ -9503,7 +9503,7 @@
       <c r="L91" s="23"/>
       <c r="M91" s="23"/>
     </row>
-    <row r="92" spans="1:13" ht="14.4">
+    <row r="92" spans="1:13">
       <c r="A92" s="23"/>
       <c r="B92" s="23"/>
       <c r="C92" s="23"/>
@@ -9518,7 +9518,7 @@
       <c r="L92" s="23"/>
       <c r="M92" s="23"/>
     </row>
-    <row r="93" spans="1:13" ht="14.4">
+    <row r="93" spans="1:13">
       <c r="A93" s="23"/>
       <c r="B93" s="23"/>
       <c r="C93" s="23"/>
@@ -9533,7 +9533,7 @@
       <c r="L93" s="23"/>
       <c r="M93" s="23"/>
     </row>
-    <row r="94" spans="1:13" ht="14.4">
+    <row r="94" spans="1:13">
       <c r="A94" s="23"/>
       <c r="B94" s="23"/>
       <c r="C94" s="23"/>
@@ -9548,7 +9548,7 @@
       <c r="L94" s="23"/>
       <c r="M94" s="23"/>
     </row>
-    <row r="95" spans="1:13" ht="14.4">
+    <row r="95" spans="1:13">
       <c r="A95" s="23"/>
       <c r="B95" s="23"/>
       <c r="C95" s="23"/>
@@ -9563,7 +9563,7 @@
       <c r="L95" s="23"/>
       <c r="M95" s="23"/>
     </row>
-    <row r="96" spans="1:13" ht="14.4">
+    <row r="96" spans="1:13">
       <c r="A96" s="23"/>
       <c r="B96" s="23"/>
       <c r="C96" s="23"/>
@@ -9578,7 +9578,7 @@
       <c r="L96" s="23"/>
       <c r="M96" s="23"/>
     </row>
-    <row r="97" spans="1:13" ht="14.4">
+    <row r="97" spans="1:13">
       <c r="A97" s="23"/>
       <c r="B97" s="23"/>
       <c r="C97" s="23"/>
@@ -9593,7 +9593,7 @@
       <c r="L97" s="23"/>
       <c r="M97" s="23"/>
     </row>
-    <row r="98" spans="1:13" ht="14.4">
+    <row r="98" spans="1:13">
       <c r="A98" s="23"/>
       <c r="B98" s="23"/>
       <c r="C98" s="23"/>
@@ -9608,7 +9608,7 @@
       <c r="L98" s="23"/>
       <c r="M98" s="23"/>
     </row>
-    <row r="99" spans="1:13" ht="14.4">
+    <row r="99" spans="1:13">
       <c r="A99" s="23"/>
       <c r="B99" s="23"/>
       <c r="C99" s="23"/>
@@ -9623,7 +9623,7 @@
       <c r="L99" s="23"/>
       <c r="M99" s="23"/>
     </row>
-    <row r="100" spans="1:13" ht="14.4">
+    <row r="100" spans="1:13">
       <c r="A100" s="23"/>
       <c r="B100" s="23"/>
       <c r="C100" s="23"/>
@@ -9638,7 +9638,7 @@
       <c r="L100" s="23"/>
       <c r="M100" s="23"/>
     </row>
-    <row r="101" spans="1:13" ht="14.4">
+    <row r="101" spans="1:13">
       <c r="A101" s="23"/>
       <c r="B101" s="23"/>
       <c r="C101" s="23"/>
@@ -9653,7 +9653,7 @@
       <c r="L101" s="23"/>
       <c r="M101" s="23"/>
     </row>
-    <row r="102" spans="1:13" ht="14.4">
+    <row r="102" spans="1:13">
       <c r="A102" s="23"/>
       <c r="B102" s="23"/>
       <c r="C102" s="23"/>
@@ -9668,7 +9668,7 @@
       <c r="L102" s="23"/>
       <c r="M102" s="23"/>
     </row>
-    <row r="103" spans="1:13" ht="14.4">
+    <row r="103" spans="1:13">
       <c r="A103" s="23"/>
       <c r="B103" s="23"/>
       <c r="C103" s="23"/>
@@ -9683,7 +9683,7 @@
       <c r="L103" s="23"/>
       <c r="M103" s="23"/>
     </row>
-    <row r="104" spans="1:13" ht="14.4">
+    <row r="104" spans="1:13">
       <c r="A104" s="23"/>
       <c r="B104" s="23"/>
       <c r="C104" s="23"/>
@@ -9698,7 +9698,7 @@
       <c r="L104" s="23"/>
       <c r="M104" s="23"/>
     </row>
-    <row r="105" spans="1:13" ht="14.4">
+    <row r="105" spans="1:13">
       <c r="A105" s="23"/>
       <c r="B105" s="23"/>
       <c r="C105" s="23"/>
@@ -9713,7 +9713,7 @@
       <c r="L105" s="23"/>
       <c r="M105" s="23"/>
     </row>
-    <row r="106" spans="1:13" ht="14.4">
+    <row r="106" spans="1:13">
       <c r="A106" s="23"/>
       <c r="B106" s="23"/>
       <c r="C106" s="23"/>
@@ -9728,7 +9728,7 @@
       <c r="L106" s="23"/>
       <c r="M106" s="23"/>
     </row>
-    <row r="107" spans="1:13" ht="14.4">
+    <row r="107" spans="1:13">
       <c r="A107" s="23"/>
       <c r="B107" s="23"/>
       <c r="C107" s="23"/>
@@ -9743,7 +9743,7 @@
       <c r="L107" s="23"/>
       <c r="M107" s="23"/>
     </row>
-    <row r="108" spans="1:13" ht="14.4">
+    <row r="108" spans="1:13">
       <c r="A108" s="23"/>
       <c r="B108" s="23"/>
       <c r="C108" s="23"/>
@@ -9758,7 +9758,7 @@
       <c r="L108" s="23"/>
       <c r="M108" s="23"/>
     </row>
-    <row r="109" spans="1:13" ht="14.4">
+    <row r="109" spans="1:13">
       <c r="A109" s="23"/>
       <c r="B109" s="23"/>
       <c r="C109" s="23"/>
@@ -9773,7 +9773,7 @@
       <c r="L109" s="23"/>
       <c r="M109" s="23"/>
     </row>
-    <row r="110" spans="1:13" ht="14.4">
+    <row r="110" spans="1:13">
       <c r="A110" s="23"/>
       <c r="B110" s="23"/>
       <c r="C110" s="23"/>
@@ -9788,7 +9788,7 @@
       <c r="L110" s="23"/>
       <c r="M110" s="23"/>
     </row>
-    <row r="111" spans="1:13" ht="14.4">
+    <row r="111" spans="1:13">
       <c r="A111" s="23"/>
       <c r="B111" s="23"/>
       <c r="C111" s="23"/>
@@ -9803,7 +9803,7 @@
       <c r="L111" s="23"/>
       <c r="M111" s="23"/>
     </row>
-    <row r="112" spans="1:13" ht="14.4">
+    <row r="112" spans="1:13">
       <c r="A112" s="23"/>
       <c r="B112" s="23"/>
       <c r="C112" s="23"/>
@@ -9818,7 +9818,7 @@
       <c r="L112" s="23"/>
       <c r="M112" s="23"/>
     </row>
-    <row r="113" spans="1:13" ht="14.4">
+    <row r="113" spans="1:13">
       <c r="A113" s="23"/>
       <c r="B113" s="23"/>
       <c r="C113" s="23"/>
@@ -9833,7 +9833,7 @@
       <c r="L113" s="23"/>
       <c r="M113" s="23"/>
     </row>
-    <row r="114" spans="1:13" ht="14.4">
+    <row r="114" spans="1:13">
       <c r="A114" s="23"/>
       <c r="B114" s="23"/>
       <c r="C114" s="23"/>
@@ -9848,7 +9848,7 @@
       <c r="L114" s="23"/>
       <c r="M114" s="23"/>
     </row>
-    <row r="115" spans="1:13" ht="14.4">
+    <row r="115" spans="1:13">
       <c r="A115" s="23"/>
       <c r="B115" s="23"/>
       <c r="C115" s="23"/>
@@ -9863,7 +9863,7 @@
       <c r="L115" s="23"/>
       <c r="M115" s="23"/>
     </row>
-    <row r="116" spans="1:13" ht="14.4">
+    <row r="116" spans="1:13">
       <c r="A116" s="23"/>
       <c r="B116" s="23"/>
       <c r="C116" s="23"/>
@@ -9878,7 +9878,7 @@
       <c r="L116" s="23"/>
       <c r="M116" s="23"/>
     </row>
-    <row r="117" spans="1:13" ht="14.4">
+    <row r="117" spans="1:13">
       <c r="A117" s="23"/>
       <c r="B117" s="23"/>
       <c r="C117" s="23"/>
@@ -9893,7 +9893,7 @@
       <c r="L117" s="23"/>
       <c r="M117" s="23"/>
     </row>
-    <row r="118" spans="1:13" ht="14.4">
+    <row r="118" spans="1:13">
       <c r="A118" s="23"/>
       <c r="B118" s="23"/>
       <c r="C118" s="23"/>
@@ -9908,7 +9908,7 @@
       <c r="L118" s="23"/>
       <c r="M118" s="23"/>
     </row>
-    <row r="119" spans="1:13" ht="14.4">
+    <row r="119" spans="1:13">
       <c r="A119" s="23"/>
       <c r="B119" s="23"/>
       <c r="C119" s="23"/>
@@ -9923,7 +9923,7 @@
       <c r="L119" s="23"/>
       <c r="M119" s="23"/>
     </row>
-    <row r="120" spans="1:13" ht="14.4">
+    <row r="120" spans="1:13">
       <c r="A120" s="23"/>
       <c r="B120" s="23"/>
       <c r="C120" s="23"/>
@@ -9938,7 +9938,7 @@
       <c r="L120" s="23"/>
       <c r="M120" s="23"/>
     </row>
-    <row r="121" spans="1:13" ht="14.4">
+    <row r="121" spans="1:13">
       <c r="A121" s="23"/>
       <c r="B121" s="23"/>
       <c r="C121" s="23"/>
@@ -9953,7 +9953,7 @@
       <c r="L121" s="23"/>
       <c r="M121" s="23"/>
     </row>
-    <row r="122" spans="1:13" ht="14.4">
+    <row r="122" spans="1:13">
       <c r="A122" s="23"/>
       <c r="B122" s="23"/>
       <c r="C122" s="23"/>
@@ -9968,7 +9968,7 @@
       <c r="L122" s="23"/>
       <c r="M122" s="23"/>
     </row>
-    <row r="123" spans="1:13" ht="14.4">
+    <row r="123" spans="1:13">
       <c r="A123" s="23"/>
       <c r="B123" s="23"/>
       <c r="C123" s="23"/>
@@ -9983,7 +9983,7 @@
       <c r="L123" s="23"/>
       <c r="M123" s="23"/>
     </row>
-    <row r="124" spans="1:13" ht="14.4">
+    <row r="124" spans="1:13">
       <c r="A124" s="23"/>
       <c r="B124" s="23"/>
       <c r="C124" s="23"/>
@@ -9998,7 +9998,7 @@
       <c r="L124" s="23"/>
       <c r="M124" s="23"/>
     </row>
-    <row r="125" spans="1:13" ht="14.4">
+    <row r="125" spans="1:13">
       <c r="A125" s="23"/>
       <c r="B125" s="23"/>
       <c r="C125" s="23"/>
@@ -10013,7 +10013,7 @@
       <c r="L125" s="23"/>
       <c r="M125" s="23"/>
     </row>
-    <row r="126" spans="1:13" ht="14.4">
+    <row r="126" spans="1:13">
       <c r="A126" s="23"/>
       <c r="B126" s="23"/>
       <c r="C126" s="23"/>
@@ -10028,7 +10028,7 @@
       <c r="L126" s="23"/>
       <c r="M126" s="23"/>
     </row>
-    <row r="127" spans="1:13" ht="14.4">
+    <row r="127" spans="1:13">
       <c r="A127" s="23"/>
       <c r="B127" s="23"/>
       <c r="C127" s="23"/>
@@ -10043,7 +10043,7 @@
       <c r="L127" s="23"/>
       <c r="M127" s="23"/>
     </row>
-    <row r="128" spans="1:13" ht="14.4">
+    <row r="128" spans="1:13">
       <c r="A128" s="23"/>
       <c r="B128" s="23"/>
       <c r="C128" s="23"/>
@@ -10058,7 +10058,7 @@
       <c r="L128" s="23"/>
       <c r="M128" s="23"/>
     </row>
-    <row r="129" spans="1:13" ht="14.4">
+    <row r="129" spans="1:13">
       <c r="A129" s="23"/>
       <c r="B129" s="23"/>
       <c r="C129" s="23"/>
@@ -10073,7 +10073,7 @@
       <c r="L129" s="23"/>
       <c r="M129" s="23"/>
     </row>
-    <row r="130" spans="1:13" ht="14.4">
+    <row r="130" spans="1:13">
       <c r="A130" s="23"/>
       <c r="B130" s="23"/>
       <c r="C130" s="23"/>
@@ -10088,7 +10088,7 @@
       <c r="L130" s="23"/>
       <c r="M130" s="23"/>
     </row>
-    <row r="131" spans="1:13" ht="14.4">
+    <row r="131" spans="1:13">
       <c r="A131" s="23"/>
       <c r="B131" s="23"/>
       <c r="C131" s="23"/>
@@ -10103,7 +10103,7 @@
       <c r="L131" s="23"/>
       <c r="M131" s="23"/>
     </row>
-    <row r="132" spans="1:13" ht="14.4">
+    <row r="132" spans="1:13">
       <c r="A132" s="23"/>
       <c r="B132" s="23"/>
       <c r="C132" s="23"/>
@@ -10118,7 +10118,7 @@
       <c r="L132" s="23"/>
       <c r="M132" s="23"/>
     </row>
-    <row r="133" spans="1:13" ht="14.4">
+    <row r="133" spans="1:13">
       <c r="A133" s="23"/>
       <c r="B133" s="23"/>
       <c r="C133" s="23"/>
@@ -10133,7 +10133,7 @@
       <c r="L133" s="23"/>
       <c r="M133" s="23"/>
     </row>
-    <row r="134" spans="1:13" ht="14.4">
+    <row r="134" spans="1:13">
       <c r="A134" s="23"/>
       <c r="B134" s="23"/>
       <c r="C134" s="23"/>
@@ -10148,7 +10148,7 @@
       <c r="L134" s="23"/>
       <c r="M134" s="23"/>
     </row>
-    <row r="135" spans="1:13" ht="14.4">
+    <row r="135" spans="1:13">
       <c r="A135" s="23"/>
       <c r="B135" s="23"/>
       <c r="C135" s="23"/>
@@ -10163,7 +10163,7 @@
       <c r="L135" s="23"/>
       <c r="M135" s="23"/>
     </row>
-    <row r="136" spans="1:13" ht="14.4">
+    <row r="136" spans="1:13">
       <c r="A136" s="23"/>
       <c r="B136" s="23"/>
       <c r="C136" s="23"/>
@@ -10178,7 +10178,7 @@
       <c r="L136" s="23"/>
       <c r="M136" s="23"/>
     </row>
-    <row r="137" spans="1:13" ht="14.4">
+    <row r="137" spans="1:13">
       <c r="A137" s="23"/>
       <c r="B137" s="23"/>
       <c r="C137" s="23"/>
@@ -10193,7 +10193,7 @@
       <c r="L137" s="23"/>
       <c r="M137" s="23"/>
     </row>
-    <row r="138" spans="1:13" ht="14.4">
+    <row r="138" spans="1:13">
       <c r="A138" s="23"/>
       <c r="B138" s="23"/>
       <c r="C138" s="23"/>
@@ -10208,7 +10208,7 @@
       <c r="L138" s="23"/>
       <c r="M138" s="23"/>
     </row>
-    <row r="139" spans="1:13" ht="14.4">
+    <row r="139" spans="1:13">
       <c r="A139" s="23"/>
       <c r="B139" s="23"/>
       <c r="C139" s="23"/>
@@ -10223,7 +10223,7 @@
       <c r="L139" s="23"/>
       <c r="M139" s="23"/>
     </row>
-    <row r="140" spans="1:13" ht="14.4">
+    <row r="140" spans="1:13">
       <c r="A140" s="23"/>
       <c r="B140" s="23"/>
       <c r="C140" s="23"/>
@@ -10238,7 +10238,7 @@
       <c r="L140" s="23"/>
       <c r="M140" s="23"/>
     </row>
-    <row r="141" spans="1:13" ht="14.4">
+    <row r="141" spans="1:13">
       <c r="A141" s="23"/>
       <c r="B141" s="23"/>
       <c r="C141" s="23"/>
@@ -10253,7 +10253,7 @@
       <c r="L141" s="23"/>
       <c r="M141" s="23"/>
     </row>
-    <row r="142" spans="1:13" ht="14.4">
+    <row r="142" spans="1:13">
       <c r="A142" s="23"/>
       <c r="B142" s="23"/>
       <c r="C142" s="23"/>
@@ -10268,7 +10268,7 @@
       <c r="L142" s="23"/>
       <c r="M142" s="23"/>
     </row>
-    <row r="143" spans="1:13" ht="14.4">
+    <row r="143" spans="1:13">
       <c r="A143" s="23"/>
       <c r="B143" s="23"/>
       <c r="C143" s="23"/>
@@ -10283,7 +10283,7 @@
       <c r="L143" s="23"/>
       <c r="M143" s="23"/>
     </row>
-    <row r="144" spans="1:13" ht="14.4">
+    <row r="144" spans="1:13">
       <c r="A144" s="23"/>
       <c r="B144" s="23"/>
       <c r="C144" s="23"/>
@@ -10298,7 +10298,7 @@
       <c r="L144" s="23"/>
       <c r="M144" s="23"/>
     </row>
-    <row r="145" spans="1:13" ht="14.4">
+    <row r="145" spans="1:13">
       <c r="A145" s="23"/>
       <c r="B145" s="23"/>
       <c r="C145" s="23"/>
@@ -10313,7 +10313,7 @@
       <c r="L145" s="23"/>
       <c r="M145" s="23"/>
     </row>
-    <row r="146" spans="1:13" ht="14.4">
+    <row r="146" spans="1:13">
       <c r="A146" s="23"/>
       <c r="B146" s="23"/>
       <c r="C146" s="23"/>
@@ -10328,7 +10328,7 @@
       <c r="L146" s="23"/>
       <c r="M146" s="23"/>
     </row>
-    <row r="147" spans="1:13" ht="14.4">
+    <row r="147" spans="1:13">
       <c r="A147" s="23"/>
       <c r="B147" s="23"/>
       <c r="C147" s="23"/>
@@ -10343,7 +10343,7 @@
       <c r="L147" s="23"/>
       <c r="M147" s="23"/>
     </row>
-    <row r="148" spans="1:13" ht="14.4">
+    <row r="148" spans="1:13">
       <c r="A148" s="23"/>
       <c r="B148" s="23"/>
       <c r="C148" s="23"/>
@@ -10358,7 +10358,7 @@
       <c r="L148" s="23"/>
       <c r="M148" s="23"/>
     </row>
-    <row r="149" spans="1:13" ht="14.4">
+    <row r="149" spans="1:13">
       <c r="A149" s="23"/>
       <c r="B149" s="23"/>
       <c r="C149" s="23"/>
@@ -10373,7 +10373,7 @@
       <c r="L149" s="23"/>
       <c r="M149" s="23"/>
     </row>
-    <row r="150" spans="1:13" ht="14.4">
+    <row r="150" spans="1:13">
       <c r="A150" s="23"/>
       <c r="B150" s="23"/>
       <c r="C150" s="23"/>
@@ -10388,7 +10388,7 @@
       <c r="L150" s="23"/>
       <c r="M150" s="23"/>
     </row>
-    <row r="151" spans="1:13" ht="14.4">
+    <row r="151" spans="1:13">
       <c r="A151" s="23"/>
       <c r="B151" s="23"/>
       <c r="C151" s="23"/>
@@ -10403,7 +10403,7 @@
       <c r="L151" s="23"/>
       <c r="M151" s="23"/>
     </row>
-    <row r="152" spans="1:13" ht="14.4">
+    <row r="152" spans="1:13">
       <c r="A152" s="23"/>
       <c r="B152" s="23"/>
       <c r="C152" s="23"/>
@@ -10418,7 +10418,7 @@
       <c r="L152" s="23"/>
       <c r="M152" s="23"/>
     </row>
-    <row r="153" spans="1:13" ht="14.4">
+    <row r="153" spans="1:13">
       <c r="A153" s="23"/>
       <c r="B153" s="23"/>
       <c r="C153" s="23"/>
@@ -10433,7 +10433,7 @@
       <c r="L153" s="23"/>
       <c r="M153" s="23"/>
     </row>
-    <row r="154" spans="1:13" ht="14.4">
+    <row r="154" spans="1:13">
       <c r="A154" s="23"/>
       <c r="B154" s="23"/>
       <c r="C154" s="23"/>
@@ -10448,7 +10448,7 @@
       <c r="L154" s="23"/>
       <c r="M154" s="23"/>
     </row>
-    <row r="155" spans="1:13" ht="14.4">
+    <row r="155" spans="1:13">
       <c r="A155" s="23"/>
       <c r="B155" s="23"/>
       <c r="C155" s="23"/>
@@ -10463,7 +10463,7 @@
       <c r="L155" s="23"/>
       <c r="M155" s="23"/>
     </row>
-    <row r="156" spans="1:13" ht="14.4">
+    <row r="156" spans="1:13">
       <c r="A156" s="23"/>
       <c r="B156" s="23"/>
       <c r="C156" s="23"/>
@@ -10478,7 +10478,7 @@
       <c r="L156" s="23"/>
       <c r="M156" s="23"/>
     </row>
-    <row r="157" spans="1:13" ht="14.4">
+    <row r="157" spans="1:13">
       <c r="A157" s="23"/>
       <c r="B157" s="23"/>
       <c r="C157" s="23"/>
@@ -10493,7 +10493,7 @@
       <c r="L157" s="23"/>
       <c r="M157" s="23"/>
     </row>
-    <row r="158" spans="1:13" ht="14.4">
+    <row r="158" spans="1:13">
       <c r="A158" s="23"/>
       <c r="B158" s="23"/>
       <c r="C158" s="23"/>
@@ -10508,7 +10508,7 @@
       <c r="L158" s="23"/>
       <c r="M158" s="23"/>
     </row>
-    <row r="159" spans="1:13" ht="14.4">
+    <row r="159" spans="1:13">
       <c r="A159" s="23"/>
       <c r="B159" s="23"/>
       <c r="C159" s="23"/>
@@ -10523,7 +10523,7 @@
       <c r="L159" s="23"/>
       <c r="M159" s="23"/>
     </row>
-    <row r="160" spans="1:13" ht="14.4">
+    <row r="160" spans="1:13">
       <c r="A160" s="23"/>
       <c r="B160" s="23"/>
       <c r="C160" s="23"/>
@@ -10538,7 +10538,7 @@
       <c r="L160" s="23"/>
       <c r="M160" s="23"/>
     </row>
-    <row r="161" spans="1:13" ht="14.4">
+    <row r="161" spans="1:13">
       <c r="A161" s="23"/>
       <c r="B161" s="23"/>
       <c r="C161" s="23"/>
@@ -10553,7 +10553,7 @@
       <c r="L161" s="23"/>
       <c r="M161" s="23"/>
     </row>
-    <row r="162" spans="1:13" ht="14.4">
+    <row r="162" spans="1:13">
       <c r="A162" s="23"/>
       <c r="B162" s="23"/>
       <c r="C162" s="23"/>
@@ -10568,7 +10568,7 @@
       <c r="L162" s="23"/>
       <c r="M162" s="23"/>
     </row>
-    <row r="163" spans="1:13" ht="14.4">
+    <row r="163" spans="1:13">
       <c r="A163" s="23"/>
       <c r="B163" s="23"/>
       <c r="C163" s="23"/>
@@ -10583,7 +10583,7 @@
       <c r="L163" s="23"/>
       <c r="M163" s="23"/>
     </row>
-    <row r="164" spans="1:13" ht="14.4">
+    <row r="164" spans="1:13">
       <c r="A164" s="23"/>
       <c r="B164" s="23"/>
       <c r="C164" s="23"/>
@@ -10598,7 +10598,7 @@
       <c r="L164" s="23"/>
       <c r="M164" s="23"/>
     </row>
-    <row r="165" spans="1:13" ht="14.4">
+    <row r="165" spans="1:13">
       <c r="A165" s="23"/>
       <c r="B165" s="23"/>
       <c r="C165" s="23"/>
@@ -10613,7 +10613,7 @@
       <c r="L165" s="23"/>
       <c r="M165" s="23"/>
     </row>
-    <row r="166" spans="1:13" ht="14.4">
+    <row r="166" spans="1:13">
       <c r="A166" s="23"/>
       <c r="B166" s="23"/>
       <c r="C166" s="23"/>
@@ -10628,7 +10628,7 @@
       <c r="L166" s="23"/>
       <c r="M166" s="23"/>
     </row>
-    <row r="167" spans="1:13" ht="14.4">
+    <row r="167" spans="1:13">
       <c r="A167" s="23"/>
       <c r="B167" s="23"/>
       <c r="C167" s="23"/>
@@ -10643,7 +10643,7 @@
       <c r="L167" s="23"/>
       <c r="M167" s="23"/>
     </row>
-    <row r="168" spans="1:13" ht="14.4">
+    <row r="168" spans="1:13">
       <c r="A168" s="23"/>
       <c r="B168" s="23"/>
       <c r="C168" s="23"/>
@@ -10658,7 +10658,7 @@
       <c r="L168" s="23"/>
       <c r="M168" s="23"/>
     </row>
-    <row r="169" spans="1:13" ht="14.4">
+    <row r="169" spans="1:13">
       <c r="A169" s="23"/>
       <c r="B169" s="23"/>
       <c r="C169" s="23"/>
@@ -10673,7 +10673,7 @@
       <c r="L169" s="23"/>
       <c r="M169" s="23"/>
     </row>
-    <row r="170" spans="1:13" ht="14.4">
+    <row r="170" spans="1:13">
       <c r="A170" s="23"/>
       <c r="B170" s="23"/>
       <c r="C170" s="23"/>
@@ -10688,7 +10688,7 @@
       <c r="L170" s="23"/>
       <c r="M170" s="23"/>
     </row>
-    <row r="171" spans="1:13" ht="14.4">
+    <row r="171" spans="1:13">
       <c r="A171" s="23"/>
       <c r="B171" s="23"/>
       <c r="C171" s="23"/>
@@ -10703,7 +10703,7 @@
       <c r="L171" s="23"/>
       <c r="M171" s="23"/>
     </row>
-    <row r="172" spans="1:13" ht="14.4">
+    <row r="172" spans="1:13">
       <c r="A172" s="23"/>
       <c r="B172" s="23"/>
       <c r="C172" s="23"/>
@@ -10718,7 +10718,7 @@
       <c r="L172" s="23"/>
       <c r="M172" s="23"/>
     </row>
-    <row r="173" spans="1:13" ht="14.4">
+    <row r="173" spans="1:13">
       <c r="A173" s="23"/>
       <c r="B173" s="23"/>
       <c r="C173" s="23"/>
@@ -10733,7 +10733,7 @@
       <c r="L173" s="23"/>
       <c r="M173" s="23"/>
     </row>
-    <row r="174" spans="1:13" ht="14.4">
+    <row r="174" spans="1:13">
       <c r="A174" s="23"/>
       <c r="B174" s="23"/>
       <c r="C174" s="23"/>
@@ -10748,7 +10748,7 @@
       <c r="L174" s="23"/>
       <c r="M174" s="23"/>
     </row>
-    <row r="175" spans="1:13" ht="14.4">
+    <row r="175" spans="1:13">
       <c r="A175" s="23"/>
       <c r="B175" s="23"/>
       <c r="C175" s="23"/>
@@ -10763,7 +10763,7 @@
       <c r="L175" s="23"/>
       <c r="M175" s="23"/>
     </row>
-    <row r="176" spans="1:13" ht="14.4">
+    <row r="176" spans="1:13">
       <c r="A176" s="23"/>
       <c r="B176" s="23"/>
       <c r="C176" s="23"/>
@@ -10778,7 +10778,7 @@
       <c r="L176" s="23"/>
       <c r="M176" s="23"/>
     </row>
-    <row r="177" spans="1:13" ht="14.4">
+    <row r="177" spans="1:13">
       <c r="A177" s="23"/>
       <c r="B177" s="23"/>
       <c r="C177" s="23"/>
@@ -10793,7 +10793,7 @@
       <c r="L177" s="23"/>
       <c r="M177" s="23"/>
     </row>
-    <row r="178" spans="1:13" ht="14.4">
+    <row r="178" spans="1:13">
       <c r="A178" s="23"/>
       <c r="B178" s="23"/>
       <c r="C178" s="23"/>
@@ -10808,7 +10808,7 @@
       <c r="L178" s="23"/>
       <c r="M178" s="23"/>
     </row>
-    <row r="179" spans="1:13" ht="14.4">
+    <row r="179" spans="1:13">
       <c r="A179" s="23"/>
       <c r="B179" s="23"/>
       <c r="C179" s="23"/>
@@ -10823,7 +10823,7 @@
       <c r="L179" s="23"/>
       <c r="M179" s="23"/>
     </row>
-    <row r="180" spans="1:13" ht="14.4">
+    <row r="180" spans="1:13">
       <c r="A180" s="23"/>
       <c r="B180" s="23"/>
       <c r="C180" s="23"/>
@@ -10838,7 +10838,7 @@
       <c r="L180" s="23"/>
       <c r="M180" s="23"/>
     </row>
-    <row r="181" spans="1:13" ht="14.4">
+    <row r="181" spans="1:13">
       <c r="A181" s="23"/>
       <c r="B181" s="23"/>
       <c r="C181" s="23"/>
@@ -10853,7 +10853,7 @@
       <c r="L181" s="23"/>
       <c r="M181" s="23"/>
     </row>
-    <row r="182" spans="1:13" ht="14.4">
+    <row r="182" spans="1:13">
       <c r="A182" s="23"/>
       <c r="B182" s="23"/>
       <c r="C182" s="23"/>
@@ -10868,7 +10868,7 @@
       <c r="L182" s="23"/>
       <c r="M182" s="23"/>
     </row>
-    <row r="183" spans="1:13" ht="14.4">
+    <row r="183" spans="1:13">
       <c r="A183" s="23"/>
       <c r="B183" s="23"/>
       <c r="C183" s="23"/>
@@ -10883,7 +10883,7 @@
       <c r="L183" s="23"/>
       <c r="M183" s="23"/>
     </row>
-    <row r="184" spans="1:13" ht="14.4">
+    <row r="184" spans="1:13">
       <c r="A184" s="23"/>
       <c r="B184" s="23"/>
       <c r="C184" s="23"/>
@@ -10898,7 +10898,7 @@
       <c r="L184" s="23"/>
       <c r="M184" s="23"/>
     </row>
-    <row r="185" spans="1:13" ht="14.4">
+    <row r="185" spans="1:13">
       <c r="A185" s="23"/>
       <c r="B185" s="23"/>
       <c r="C185" s="23"/>
@@ -10913,7 +10913,7 @@
       <c r="L185" s="23"/>
       <c r="M185" s="23"/>
     </row>
-    <row r="186" spans="1:13" ht="14.4">
+    <row r="186" spans="1:13">
       <c r="A186" s="23"/>
       <c r="B186" s="23"/>
       <c r="C186" s="23"/>
@@ -10928,7 +10928,7 @@
       <c r="L186" s="23"/>
       <c r="M186" s="23"/>
     </row>
-    <row r="187" spans="1:13" ht="14.4">
+    <row r="187" spans="1:13">
       <c r="A187" s="23"/>
       <c r="B187" s="23"/>
       <c r="C187" s="23"/>
@@ -10943,7 +10943,7 @@
       <c r="L187" s="23"/>
       <c r="M187" s="23"/>
     </row>
-    <row r="188" spans="1:13" ht="14.4">
+    <row r="188" spans="1:13">
       <c r="A188" s="23"/>
       <c r="B188" s="23"/>
       <c r="C188" s="23"/>
@@ -10958,7 +10958,7 @@
       <c r="L188" s="23"/>
       <c r="M188" s="23"/>
     </row>
-    <row r="189" spans="1:13" ht="14.4">
+    <row r="189" spans="1:13">
       <c r="A189" s="23"/>
       <c r="B189" s="23"/>
       <c r="C189" s="23"/>
@@ -10973,7 +10973,7 @@
       <c r="L189" s="23"/>
       <c r="M189" s="23"/>
     </row>
-    <row r="190" spans="1:13" ht="14.4">
+    <row r="190" spans="1:13">
       <c r="A190" s="23"/>
       <c r="B190" s="23"/>
       <c r="C190" s="23"/>
@@ -10988,7 +10988,7 @@
       <c r="L190" s="23"/>
       <c r="M190" s="23"/>
     </row>
-    <row r="191" spans="1:13" ht="14.4">
+    <row r="191" spans="1:13">
       <c r="A191" s="23"/>
       <c r="B191" s="23"/>
       <c r="C191" s="23"/>
@@ -11003,7 +11003,7 @@
       <c r="L191" s="23"/>
       <c r="M191" s="23"/>
     </row>
-    <row r="192" spans="1:13" ht="14.4">
+    <row r="192" spans="1:13">
       <c r="A192" s="23"/>
       <c r="B192" s="23"/>
       <c r="C192" s="23"/>
@@ -11018,7 +11018,7 @@
       <c r="L192" s="23"/>
       <c r="M192" s="23"/>
     </row>
-    <row r="193" spans="1:13" ht="14.4">
+    <row r="193" spans="1:13">
       <c r="A193" s="23"/>
       <c r="B193" s="23"/>
       <c r="C193" s="23"/>
@@ -11033,7 +11033,7 @@
       <c r="L193" s="23"/>
       <c r="M193" s="23"/>
     </row>
-    <row r="194" spans="1:13" ht="14.4">
+    <row r="194" spans="1:13">
       <c r="A194" s="23"/>
       <c r="B194" s="23"/>
       <c r="C194" s="23"/>
@@ -11048,7 +11048,7 @@
       <c r="L194" s="23"/>
       <c r="M194" s="23"/>
     </row>
-    <row r="195" spans="1:13" ht="14.4">
+    <row r="195" spans="1:13">
       <c r="A195" s="23"/>
       <c r="B195" s="23"/>
       <c r="C195" s="23"/>
@@ -11063,7 +11063,7 @@
       <c r="L195" s="23"/>
       <c r="M195" s="23"/>
     </row>
-    <row r="196" spans="1:13" ht="14.4">
+    <row r="196" spans="1:13">
       <c r="A196" s="23"/>
       <c r="B196" s="23"/>
       <c r="C196" s="23"/>
@@ -11078,7 +11078,7 @@
       <c r="L196" s="23"/>
       <c r="M196" s="23"/>
     </row>
-    <row r="197" spans="1:13" ht="14.4">
+    <row r="197" spans="1:13">
       <c r="A197" s="23"/>
       <c r="B197" s="23"/>
       <c r="C197" s="23"/>
@@ -11093,7 +11093,7 @@
       <c r="L197" s="23"/>
       <c r="M197" s="23"/>
     </row>
-    <row r="198" spans="1:13" ht="14.4">
+    <row r="198" spans="1:13">
       <c r="A198" s="23"/>
       <c r="B198" s="23"/>
       <c r="C198" s="23"/>
@@ -11108,7 +11108,7 @@
       <c r="L198" s="23"/>
       <c r="M198" s="23"/>
     </row>
-    <row r="199" spans="1:13" ht="14.4">
+    <row r="199" spans="1:13">
       <c r="A199" s="23"/>
       <c r="B199" s="23"/>
       <c r="C199" s="23"/>
@@ -11123,7 +11123,7 @@
       <c r="L199" s="23"/>
       <c r="M199" s="23"/>
     </row>
-    <row r="200" spans="1:13" ht="14.4">
+    <row r="200" spans="1:13">
       <c r="A200" s="23"/>
       <c r="B200" s="23"/>
       <c r="C200" s="23"/>
@@ -11138,7 +11138,7 @@
       <c r="L200" s="23"/>
       <c r="M200" s="23"/>
     </row>
-    <row r="201" spans="1:13" ht="14.4">
+    <row r="201" spans="1:13">
       <c r="A201" s="23"/>
       <c r="B201" s="23"/>
       <c r="C201" s="23"/>
@@ -11175,26 +11175,26 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23" style="1" customWidth="1"/>
     <col min="2" max="2" width="39" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
     <col min="5" max="5" width="28" style="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" style="1" customWidth="1"/>
-    <col min="8" max="9" width="21.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="1" customWidth="1"/>
+    <col min="8" max="9" width="21.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="15" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.44140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.875" style="1" customWidth="1"/>
     <col min="17" max="17" width="13" style="1" customWidth="1"/>
     <col min="18" max="26" width="10" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.88671875" style="1"/>
+    <col min="27" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
@@ -16828,17 +16828,17 @@
   </sheetPr>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="138" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="20" customWidth="1"/>
+    <col min="2" max="2" width="17.375" style="138" customWidth="1"/>
     <col min="3" max="3" width="51" style="20" customWidth="1"/>
-    <col min="4" max="4" width="71.88671875" style="20" customWidth="1"/>
-    <col min="5" max="6" width="53.6640625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="71.875" style="20" customWidth="1"/>
+    <col min="5" max="6" width="53.625" style="20" customWidth="1"/>
     <col min="7" max="7" width="9" style="20" customWidth="1"/>
     <col min="8" max="16384" width="9" style="20"/>
   </cols>
@@ -17123,27 +17123,27 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="145"/>
-    <col min="2" max="2" width="10.109375" style="145" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" style="145" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="145" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="145" customWidth="1"/>
     <col min="4" max="4" width="28" style="145" customWidth="1"/>
-    <col min="5" max="5" width="5.33203125" style="145" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" style="146" customWidth="1"/>
-    <col min="7" max="7" width="43.44140625" style="145" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="145" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" style="145" customWidth="1"/>
-    <col min="10" max="10" width="50.6640625" style="145" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" style="145" customWidth="1"/>
-    <col min="12" max="12" width="21.6640625" style="145" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" style="145" customWidth="1"/>
-    <col min="14" max="14" width="20.33203125" style="145" customWidth="1"/>
-    <col min="15" max="18" width="21.6640625" style="145" customWidth="1"/>
-    <col min="19" max="19" width="19.44140625" style="145" customWidth="1"/>
-    <col min="20" max="20" width="10.109375" style="145" customWidth="1"/>
+    <col min="5" max="5" width="5.375" style="145" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="146" customWidth="1"/>
+    <col min="7" max="7" width="43.5" style="145" customWidth="1"/>
+    <col min="8" max="8" width="7.625" style="145" customWidth="1"/>
+    <col min="9" max="9" width="21.625" style="145" customWidth="1"/>
+    <col min="10" max="10" width="50.625" style="145" customWidth="1"/>
+    <col min="11" max="11" width="15.625" style="145" customWidth="1"/>
+    <col min="12" max="12" width="21.625" style="145" customWidth="1"/>
+    <col min="13" max="13" width="18.375" style="145" customWidth="1"/>
+    <col min="14" max="14" width="20.375" style="145" customWidth="1"/>
+    <col min="15" max="18" width="21.625" style="145" customWidth="1"/>
+    <col min="19" max="19" width="19.5" style="145" customWidth="1"/>
+    <col min="20" max="20" width="10.125" style="145" customWidth="1"/>
     <col min="21" max="21" width="9" style="145" customWidth="1"/>
     <col min="22" max="16384" width="9" style="145"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="205" customFormat="1" ht="43.2">
+    <row r="1" spans="1:21" s="205" customFormat="1" ht="40.5">
       <c r="A1" s="205" t="s">
         <v>74</v>
       </c>
@@ -17881,7 +17881,7 @@
       <c r="S13" s="174"/>
       <c r="T13" s="168"/>
     </row>
-    <row r="14" spans="1:21" s="175" customFormat="1" ht="19.2" customHeight="1">
+    <row r="14" spans="1:21" s="175" customFormat="1" ht="19.149999999999999" customHeight="1">
       <c r="A14" s="189"/>
       <c r="B14" s="190"/>
       <c r="C14" s="191"/>
@@ -18217,7 +18217,7 @@
       <c r="S20" s="174"/>
       <c r="T20" s="168"/>
     </row>
-    <row r="21" spans="1:20" s="175" customFormat="1" ht="22.2" customHeight="1">
+    <row r="21" spans="1:20" s="175" customFormat="1" ht="22.15" customHeight="1">
       <c r="A21" s="213"/>
       <c r="B21" s="148" t="s">
         <v>169</v>
@@ -18373,7 +18373,7 @@
       <c r="S23" s="174"/>
       <c r="T23" s="168"/>
     </row>
-    <row r="24" spans="1:20" s="175" customFormat="1" ht="36">
+    <row r="24" spans="1:20" s="175" customFormat="1" ht="24">
       <c r="A24" s="213"/>
       <c r="B24" s="148" t="s">
         <v>137</v>
@@ -18655,21 +18655,21 @@
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="47.6640625" customWidth="1"/>
-    <col min="9" max="9" width="104.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="22.375" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="47.625" customWidth="1"/>
+    <col min="9" max="9" width="104.625" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.4">
+    <row r="1" spans="1:15">
       <c r="A1" s="129" t="s">
         <v>68</v>
       </c>
@@ -18682,7 +18682,7 @@
         <v>云调采集机-1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="14.4">
+    <row r="2" spans="1:15">
       <c r="A2" s="129" t="s">
         <v>71</v>
       </c>
@@ -18700,8 +18700,8 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="20" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A6" s="215" t="s">
+    <row r="6" spans="1:15" s="20" customFormat="1" ht="16.899999999999999" customHeight="1">
+      <c r="A6" s="214" t="s">
         <v>191</v>
       </c>
       <c r="B6" s="131" t="s">
@@ -18730,8 +18730,8 @@
       <c r="N6" s="144"/>
       <c r="O6" s="144"/>
     </row>
-    <row r="7" spans="1:15" s="20" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A7" s="215"/>
+    <row r="7" spans="1:15" s="20" customFormat="1" ht="16.899999999999999" customHeight="1">
+      <c r="A7" s="214"/>
       <c r="B7" s="132">
         <v>2</v>
       </c>
@@ -18758,8 +18758,8 @@
       <c r="N7" s="144"/>
       <c r="O7" s="144"/>
     </row>
-    <row r="8" spans="1:15" s="20" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A8" s="215"/>
+    <row r="8" spans="1:15" s="20" customFormat="1" ht="16.899999999999999" customHeight="1">
+      <c r="A8" s="214"/>
       <c r="B8" s="132">
         <v>3</v>
       </c>
@@ -18786,8 +18786,8 @@
       <c r="N8" s="144"/>
       <c r="O8" s="144"/>
     </row>
-    <row r="9" spans="1:15" s="20" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A9" s="215"/>
+    <row r="9" spans="1:15" s="20" customFormat="1" ht="16.899999999999999" customHeight="1">
+      <c r="A9" s="214"/>
       <c r="B9" s="132">
         <v>3</v>
       </c>
@@ -18817,8 +18817,8 @@
       <c r="N9" s="144"/>
       <c r="O9" s="144"/>
     </row>
-    <row r="10" spans="1:15" s="20" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A10" s="215"/>
+    <row r="10" spans="1:15" s="20" customFormat="1" ht="16.899999999999999" customHeight="1">
+      <c r="A10" s="214"/>
       <c r="B10" s="132">
         <v>4</v>
       </c>
@@ -18848,8 +18848,8 @@
       <c r="N10" s="144"/>
       <c r="O10" s="144"/>
     </row>
-    <row r="11" spans="1:15" s="20" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A11" s="215"/>
+    <row r="11" spans="1:15" s="20" customFormat="1" ht="16.899999999999999" customHeight="1">
+      <c r="A11" s="214"/>
       <c r="B11" s="132">
         <v>4</v>
       </c>
@@ -18876,8 +18876,8 @@
       <c r="N11" s="144"/>
       <c r="O11" s="144"/>
     </row>
-    <row r="12" spans="1:15" s="20" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A12" s="215"/>
+    <row r="12" spans="1:15" s="20" customFormat="1" ht="16.899999999999999" customHeight="1">
+      <c r="A12" s="214"/>
       <c r="B12" s="132">
         <v>4</v>
       </c>
@@ -18907,8 +18907,8 @@
       <c r="N12" s="144"/>
       <c r="O12" s="144"/>
     </row>
-    <row r="13" spans="1:15" s="20" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A13" s="215"/>
+    <row r="13" spans="1:15" s="20" customFormat="1" ht="16.899999999999999" customHeight="1">
+      <c r="A13" s="214"/>
       <c r="B13" s="132">
         <v>4</v>
       </c>
@@ -18938,8 +18938,8 @@
       <c r="N13" s="144"/>
       <c r="O13" s="144"/>
     </row>
-    <row r="14" spans="1:15" s="20" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A14" s="215"/>
+    <row r="14" spans="1:15" s="20" customFormat="1" ht="16.899999999999999" customHeight="1">
+      <c r="A14" s="214"/>
       <c r="B14" s="132">
         <v>5</v>
       </c>
@@ -18966,8 +18966,8 @@
       <c r="N14" s="144"/>
       <c r="O14" s="144"/>
     </row>
-    <row r="15" spans="1:15" s="20" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A15" s="215"/>
+    <row r="15" spans="1:15" s="20" customFormat="1" ht="16.899999999999999" customHeight="1">
+      <c r="A15" s="214"/>
       <c r="B15" s="132">
         <v>6</v>
       </c>
@@ -18994,8 +18994,8 @@
       <c r="N15" s="144"/>
       <c r="O15" s="144"/>
     </row>
-    <row r="16" spans="1:15" s="20" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A16" s="215"/>
+    <row r="16" spans="1:15" s="20" customFormat="1" ht="16.899999999999999" customHeight="1">
+      <c r="A16" s="214"/>
       <c r="B16" s="132">
         <v>7</v>
       </c>
@@ -19022,8 +19022,8 @@
       <c r="N16" s="144"/>
       <c r="O16" s="144"/>
     </row>
-    <row r="17" spans="1:15" s="20" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A17" s="215"/>
+    <row r="17" spans="1:15" s="20" customFormat="1" ht="16.899999999999999" customHeight="1">
+      <c r="A17" s="214"/>
       <c r="B17" s="134">
         <v>8</v>
       </c>
@@ -19050,7 +19050,7 @@
       <c r="N17" s="144"/>
       <c r="O17" s="144"/>
     </row>
-    <row r="18" spans="1:15" s="20" customFormat="1" ht="16.95" customHeight="1">
+    <row r="18" spans="1:15" s="20" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A18" s="135"/>
       <c r="B18" s="136"/>
       <c r="C18" s="136"/>
@@ -19066,12 +19066,12 @@
       <c r="N18" s="144"/>
       <c r="O18" s="144"/>
     </row>
-    <row r="19" spans="1:15" ht="14.4">
+    <row r="19" spans="1:15">
       <c r="A19" s="137" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="14.4">
+    <row r="20" spans="1:15">
       <c r="A20" s="138" t="s">
         <v>224</v>
       </c>
@@ -19128,7 +19128,7 @@
       </c>
       <c r="C34" s="136"/>
     </row>
-    <row r="35" spans="1:8" ht="175.95" customHeight="1">
+    <row r="35" spans="1:8" ht="175.9" customHeight="1">
       <c r="A35" s="140" t="s">
         <v>234</v>
       </c>
@@ -19150,48 +19150,48 @@
       <c r="A36" s="142" t="s">
         <v>237</v>
       </c>
-      <c r="B36" s="214" t="s">
+      <c r="B36" s="215" t="s">
         <v>238</v>
       </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="214"/>
-      <c r="E36" s="214" t="s">
+      <c r="C36" s="215"/>
+      <c r="D36" s="215"/>
+      <c r="E36" s="215" t="s">
         <v>239</v>
       </c>
-      <c r="F36" s="214"/>
-      <c r="G36" s="214"/>
+      <c r="F36" s="215"/>
+      <c r="G36" s="215"/>
       <c r="H36" s="143"/>
     </row>
-    <row r="37" spans="1:8" ht="211.95" customHeight="1">
+    <row r="37" spans="1:8" ht="211.9" customHeight="1">
       <c r="A37" s="142" t="s">
         <v>240</v>
       </c>
-      <c r="B37" s="214" t="s">
+      <c r="B37" s="215" t="s">
         <v>241</v>
       </c>
-      <c r="C37" s="214"/>
-      <c r="D37" s="214"/>
-      <c r="E37" s="214" t="s">
+      <c r="C37" s="215"/>
+      <c r="D37" s="215"/>
+      <c r="E37" s="215" t="s">
         <v>242</v>
       </c>
-      <c r="F37" s="214"/>
-      <c r="G37" s="214"/>
+      <c r="F37" s="215"/>
+      <c r="G37" s="215"/>
       <c r="H37" s="143"/>
     </row>
-    <row r="38" spans="1:8" ht="157.94999999999999" customHeight="1">
+    <row r="38" spans="1:8" ht="157.9" customHeight="1">
       <c r="A38" s="142" t="s">
         <v>243</v>
       </c>
-      <c r="B38" s="214" t="s">
+      <c r="B38" s="215" t="s">
         <v>244</v>
       </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="214"/>
-      <c r="E38" s="214" t="s">
+      <c r="C38" s="215"/>
+      <c r="D38" s="215"/>
+      <c r="E38" s="215" t="s">
         <v>245</v>
       </c>
-      <c r="F38" s="214"/>
-      <c r="G38" s="214"/>
+      <c r="F38" s="215"/>
+      <c r="G38" s="215"/>
       <c r="H38" s="143" t="s">
         <v>246</v>
       </c>
@@ -19200,87 +19200,95 @@
       <c r="A39" s="142" t="s">
         <v>243</v>
       </c>
-      <c r="B39" s="214" t="s">
+      <c r="B39" s="215" t="s">
         <v>247</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="214"/>
-      <c r="E39" s="214" t="s">
+      <c r="C39" s="215"/>
+      <c r="D39" s="215"/>
+      <c r="E39" s="215" t="s">
         <v>248</v>
       </c>
-      <c r="F39" s="214"/>
-      <c r="G39" s="214"/>
+      <c r="F39" s="215"/>
+      <c r="G39" s="215"/>
       <c r="H39" s="143" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="92.7" customHeight="1">
+    <row r="40" spans="1:8" ht="92.65" customHeight="1">
       <c r="A40" s="142" t="s">
         <v>250</v>
       </c>
-      <c r="B40" s="214" t="s">
+      <c r="B40" s="215" t="s">
         <v>251</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="214"/>
-      <c r="E40" s="214" t="s">
+      <c r="C40" s="215"/>
+      <c r="D40" s="215"/>
+      <c r="E40" s="215" t="s">
         <v>252</v>
       </c>
-      <c r="F40" s="214"/>
-      <c r="G40" s="214"/>
+      <c r="F40" s="215"/>
+      <c r="G40" s="215"/>
       <c r="H40" s="143"/>
     </row>
     <row r="41" spans="1:8" ht="132.6" customHeight="1">
       <c r="A41" s="142" t="s">
         <v>253</v>
       </c>
-      <c r="B41" s="214" t="s">
+      <c r="B41" s="215" t="s">
         <v>254</v>
       </c>
-      <c r="C41" s="214"/>
-      <c r="D41" s="214"/>
-      <c r="E41" s="214" t="s">
+      <c r="C41" s="215"/>
+      <c r="D41" s="215"/>
+      <c r="E41" s="215" t="s">
         <v>255</v>
       </c>
-      <c r="F41" s="214"/>
-      <c r="G41" s="214"/>
+      <c r="F41" s="215"/>
+      <c r="G41" s="215"/>
       <c r="H41" s="143"/>
     </row>
-    <row r="42" spans="1:8" ht="168.45" customHeight="1">
+    <row r="42" spans="1:8" ht="168.4" customHeight="1">
       <c r="A42" s="142" t="s">
         <v>256</v>
       </c>
-      <c r="B42" s="214" t="s">
+      <c r="B42" s="215" t="s">
         <v>257</v>
       </c>
-      <c r="C42" s="214"/>
-      <c r="D42" s="214"/>
-      <c r="E42" s="214" t="s">
+      <c r="C42" s="215"/>
+      <c r="D42" s="215"/>
+      <c r="E42" s="215" t="s">
         <v>258</v>
       </c>
-      <c r="F42" s="214"/>
-      <c r="G42" s="214"/>
+      <c r="F42" s="215"/>
+      <c r="G42" s="215"/>
       <c r="H42" s="143"/>
     </row>
-    <row r="43" spans="1:8" ht="168.45" customHeight="1">
+    <row r="43" spans="1:8" ht="168.4" customHeight="1">
       <c r="A43" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="214" t="s">
+      <c r="B43" s="215" t="s">
         <v>259</v>
       </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="214"/>
-      <c r="E43" s="214" t="s">
+      <c r="C43" s="215"/>
+      <c r="D43" s="215"/>
+      <c r="E43" s="215" t="s">
         <v>260</v>
       </c>
-      <c r="F43" s="214"/>
-      <c r="G43" s="214"/>
+      <c r="F43" s="215"/>
+      <c r="G43" s="215"/>
       <c r="H43" s="143"/>
     </row>
   </sheetData>
   <autoFilter ref="B6:G17" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="19">
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
     <mergeCell ref="A6:A17"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="E41:G41"/>
@@ -19292,14 +19300,6 @@
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="E37:G37"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
   </mergeCells>
   <phoneticPr fontId="51" type="noConversion"/>
   <hyperlinks>
@@ -19324,25 +19324,25 @@
       <selection pane="topRight" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="86" customWidth="1"/>
-    <col min="2" max="2" width="29.5546875" style="86" customWidth="1"/>
-    <col min="3" max="4" width="42.6640625" style="86" customWidth="1"/>
-    <col min="5" max="5" width="48.44140625" style="89" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="86" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="86" customWidth="1"/>
+    <col min="3" max="4" width="42.625" style="86" customWidth="1"/>
+    <col min="5" max="5" width="48.5" style="89" customWidth="1"/>
     <col min="6" max="6" width="25" style="86" customWidth="1"/>
-    <col min="7" max="7" width="25.44140625" style="86" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="87" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" style="87" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="118" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" style="118" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="91"/>
+    <col min="7" max="7" width="25.5" style="86" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="87" customWidth="1"/>
+    <col min="9" max="9" width="21.625" style="87" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="118" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="118" customWidth="1"/>
+    <col min="12" max="12" width="7.5" customWidth="1"/>
+    <col min="13" max="13" width="9.125" style="91"/>
     <col min="17" max="17" width="9" style="88" customWidth="1"/>
-    <col min="18" max="18" width="18.5546875" customWidth="1"/>
+    <col min="18" max="18" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="116" customFormat="1" ht="28.8">
+    <row r="1" spans="1:18" s="116" customFormat="1" ht="27">
       <c r="A1" s="119" t="s">
         <v>75</v>
       </c>
@@ -19398,7 +19398,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="117" customFormat="1" ht="11.7" customHeight="1">
+    <row r="2" spans="1:18" s="117" customFormat="1" ht="11.65" customHeight="1">
       <c r="A2" s="122">
         <v>1</v>
       </c>
@@ -19453,7 +19453,7 @@
       </c>
       <c r="R2" s="114"/>
     </row>
-    <row r="3" spans="1:18" s="117" customFormat="1" ht="10.8">
+    <row r="3" spans="1:18" s="117" customFormat="1" ht="11.25">
       <c r="A3" s="122">
         <v>2</v>
       </c>
@@ -19508,7 +19508,7 @@
       </c>
       <c r="R3" s="114"/>
     </row>
-    <row r="4" spans="1:18" s="117" customFormat="1" ht="10.8">
+    <row r="4" spans="1:18" s="117" customFormat="1" ht="11.25">
       <c r="A4" s="122">
         <v>3</v>
       </c>
@@ -19563,7 +19563,7 @@
       </c>
       <c r="R4" s="114"/>
     </row>
-    <row r="5" spans="1:18" s="117" customFormat="1" ht="10.8">
+    <row r="5" spans="1:18" s="117" customFormat="1" ht="11.25">
       <c r="A5" s="122">
         <v>4</v>
       </c>
@@ -19618,7 +19618,7 @@
       </c>
       <c r="R5" s="114"/>
     </row>
-    <row r="6" spans="1:18" s="117" customFormat="1" ht="10.8">
+    <row r="6" spans="1:18" s="117" customFormat="1" ht="11.25">
       <c r="A6" s="122">
         <v>5</v>
       </c>
@@ -19673,7 +19673,7 @@
       </c>
       <c r="R6" s="114"/>
     </row>
-    <row r="7" spans="1:18" s="117" customFormat="1" ht="10.8">
+    <row r="7" spans="1:18" s="117" customFormat="1" ht="11.25">
       <c r="A7" s="122">
         <v>6</v>
       </c>
@@ -19728,7 +19728,7 @@
       </c>
       <c r="R7" s="114"/>
     </row>
-    <row r="8" spans="1:18" s="117" customFormat="1" ht="10.8">
+    <row r="8" spans="1:18" s="117" customFormat="1" ht="11.25">
       <c r="A8" s="122">
         <v>7</v>
       </c>
@@ -19783,7 +19783,7 @@
       </c>
       <c r="R8" s="114"/>
     </row>
-    <row r="9" spans="1:18" s="117" customFormat="1" ht="10.8">
+    <row r="9" spans="1:18" s="117" customFormat="1" ht="11.25">
       <c r="A9" s="122">
         <v>8</v>
       </c>
@@ -19838,7 +19838,7 @@
       </c>
       <c r="R9" s="114"/>
     </row>
-    <row r="10" spans="1:18" s="117" customFormat="1" ht="10.8">
+    <row r="10" spans="1:18" s="117" customFormat="1" ht="11.25">
       <c r="A10" s="122">
         <v>9</v>
       </c>
@@ -19893,7 +19893,7 @@
       </c>
       <c r="R10" s="114"/>
     </row>
-    <row r="11" spans="1:18" s="117" customFormat="1" ht="10.8">
+    <row r="11" spans="1:18" s="117" customFormat="1" ht="11.25">
       <c r="A11" s="122">
         <v>10</v>
       </c>
@@ -19948,7 +19948,7 @@
       </c>
       <c r="R11" s="114"/>
     </row>
-    <row r="12" spans="1:18" s="117" customFormat="1" ht="10.8">
+    <row r="12" spans="1:18" s="117" customFormat="1" ht="11.25">
       <c r="A12" s="122">
         <v>11</v>
       </c>
@@ -20003,7 +20003,7 @@
       </c>
       <c r="R12" s="114"/>
     </row>
-    <row r="13" spans="1:18" s="117" customFormat="1" ht="10.8">
+    <row r="13" spans="1:18" s="117" customFormat="1" ht="11.25">
       <c r="A13" s="122">
         <v>12</v>
       </c>
@@ -20058,7 +20058,7 @@
       </c>
       <c r="R13" s="114"/>
     </row>
-    <row r="14" spans="1:18" s="117" customFormat="1" ht="10.8">
+    <row r="14" spans="1:18" s="117" customFormat="1" ht="11.25">
       <c r="A14" s="122">
         <v>13</v>
       </c>
@@ -20113,7 +20113,7 @@
       </c>
       <c r="R14" s="114"/>
     </row>
-    <row r="15" spans="1:18" s="117" customFormat="1" ht="10.8">
+    <row r="15" spans="1:18" s="117" customFormat="1" ht="11.25">
       <c r="A15" s="122">
         <v>14</v>
       </c>
@@ -20168,7 +20168,7 @@
       </c>
       <c r="R15" s="114"/>
     </row>
-    <row r="16" spans="1:18" s="117" customFormat="1" ht="10.8">
+    <row r="16" spans="1:18" s="117" customFormat="1" ht="11.25">
       <c r="A16" s="122">
         <v>15</v>
       </c>
@@ -20223,7 +20223,7 @@
       </c>
       <c r="R16" s="114"/>
     </row>
-    <row r="17" spans="1:18" s="117" customFormat="1" ht="10.8">
+    <row r="17" spans="1:18" s="117" customFormat="1" ht="11.25">
       <c r="A17" s="122">
         <v>16</v>
       </c>
@@ -20278,7 +20278,7 @@
       </c>
       <c r="R17" s="114"/>
     </row>
-    <row r="18" spans="1:18" s="117" customFormat="1" ht="10.8">
+    <row r="18" spans="1:18" s="117" customFormat="1" ht="11.25">
       <c r="A18" s="122">
         <v>17</v>
       </c>
@@ -20333,7 +20333,7 @@
       </c>
       <c r="R18" s="114"/>
     </row>
-    <row r="19" spans="1:18" s="117" customFormat="1" ht="10.8">
+    <row r="19" spans="1:18" s="117" customFormat="1" ht="11.25">
       <c r="A19" s="122">
         <v>18</v>
       </c>
@@ -20388,7 +20388,7 @@
       </c>
       <c r="R19" s="114"/>
     </row>
-    <row r="20" spans="1:18" s="117" customFormat="1" ht="10.8">
+    <row r="20" spans="1:18" s="117" customFormat="1" ht="11.25">
       <c r="A20" s="122">
         <v>19</v>
       </c>
@@ -20443,7 +20443,7 @@
       </c>
       <c r="R20" s="114"/>
     </row>
-    <row r="21" spans="1:18" s="117" customFormat="1" ht="10.8">
+    <row r="21" spans="1:18" s="117" customFormat="1" ht="11.25">
       <c r="A21" s="122">
         <v>20</v>
       </c>
@@ -20498,7 +20498,7 @@
       </c>
       <c r="R21" s="114"/>
     </row>
-    <row r="22" spans="1:18" s="117" customFormat="1" ht="10.8">
+    <row r="22" spans="1:18" s="117" customFormat="1" ht="11.25">
       <c r="A22" s="122">
         <v>21</v>
       </c>
@@ -20553,7 +20553,7 @@
       </c>
       <c r="R22" s="114"/>
     </row>
-    <row r="23" spans="1:18" s="117" customFormat="1" ht="10.8">
+    <row r="23" spans="1:18" s="117" customFormat="1" ht="11.25">
       <c r="A23" s="122">
         <v>22</v>
       </c>
@@ -20608,7 +20608,7 @@
       </c>
       <c r="R23" s="114"/>
     </row>
-    <row r="24" spans="1:18" s="117" customFormat="1" ht="10.8">
+    <row r="24" spans="1:18" s="117" customFormat="1" ht="11.25">
       <c r="A24" s="122">
         <v>23</v>
       </c>
@@ -20663,7 +20663,7 @@
       </c>
       <c r="R24" s="114"/>
     </row>
-    <row r="25" spans="1:18" s="117" customFormat="1" ht="10.8">
+    <row r="25" spans="1:18" s="117" customFormat="1" ht="11.25">
       <c r="A25" s="122">
         <v>24</v>
       </c>
@@ -20718,7 +20718,7 @@
       </c>
       <c r="R25" s="114"/>
     </row>
-    <row r="26" spans="1:18" s="117" customFormat="1" ht="10.8">
+    <row r="26" spans="1:18" s="117" customFormat="1" ht="11.25">
       <c r="A26" s="122">
         <v>25</v>
       </c>
@@ -20773,7 +20773,7 @@
       </c>
       <c r="R26" s="114"/>
     </row>
-    <row r="27" spans="1:18" s="117" customFormat="1" ht="10.8">
+    <row r="27" spans="1:18" s="117" customFormat="1" ht="11.25">
       <c r="A27" s="122">
         <v>26</v>
       </c>
@@ -20828,7 +20828,7 @@
       </c>
       <c r="R27" s="114"/>
     </row>
-    <row r="28" spans="1:18" s="117" customFormat="1" ht="10.8">
+    <row r="28" spans="1:18" s="117" customFormat="1" ht="11.25">
       <c r="A28" s="122">
         <v>27</v>
       </c>
@@ -20883,7 +20883,7 @@
       </c>
       <c r="R28" s="114"/>
     </row>
-    <row r="29" spans="1:18" s="117" customFormat="1" ht="10.8">
+    <row r="29" spans="1:18" s="117" customFormat="1" ht="11.25">
       <c r="A29" s="122">
         <v>28</v>
       </c>
@@ -20938,7 +20938,7 @@
       </c>
       <c r="R29" s="114"/>
     </row>
-    <row r="30" spans="1:18" s="117" customFormat="1" ht="10.8">
+    <row r="30" spans="1:18" s="117" customFormat="1" ht="11.25">
       <c r="A30" s="122">
         <v>29</v>
       </c>
@@ -20993,7 +20993,7 @@
       </c>
       <c r="R30" s="114"/>
     </row>
-    <row r="31" spans="1:18" s="117" customFormat="1" ht="10.8">
+    <row r="31" spans="1:18" s="117" customFormat="1" ht="11.25">
       <c r="A31" s="122">
         <v>30</v>
       </c>
@@ -21048,7 +21048,7 @@
       </c>
       <c r="R31" s="114"/>
     </row>
-    <row r="32" spans="1:18" s="117" customFormat="1" ht="10.8">
+    <row r="32" spans="1:18" s="117" customFormat="1" ht="11.25">
       <c r="A32" s="122">
         <v>31</v>
       </c>
@@ -21103,7 +21103,7 @@
       </c>
       <c r="R32" s="114"/>
     </row>
-    <row r="33" spans="1:18" s="117" customFormat="1" ht="10.8">
+    <row r="33" spans="1:18" s="117" customFormat="1" ht="11.25">
       <c r="A33" s="122">
         <v>32</v>
       </c>
@@ -21158,7 +21158,7 @@
       </c>
       <c r="R33" s="114"/>
     </row>
-    <row r="34" spans="1:18" s="117" customFormat="1" ht="10.8">
+    <row r="34" spans="1:18" s="117" customFormat="1" ht="11.25">
       <c r="A34" s="122">
         <v>33</v>
       </c>
@@ -21213,7 +21213,7 @@
       </c>
       <c r="R34" s="114"/>
     </row>
-    <row r="35" spans="1:18" s="117" customFormat="1" ht="10.8">
+    <row r="35" spans="1:18" s="117" customFormat="1" ht="11.25">
       <c r="A35" s="122">
         <v>34</v>
       </c>
@@ -21268,7 +21268,7 @@
       </c>
       <c r="R35" s="114"/>
     </row>
-    <row r="36" spans="1:18" s="117" customFormat="1" ht="10.8">
+    <row r="36" spans="1:18" s="117" customFormat="1" ht="11.25">
       <c r="A36" s="122">
         <v>35</v>
       </c>
@@ -21342,53 +21342,53 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="86" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" style="87" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" style="86" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" style="86" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" style="88" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="89" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="86" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="87" customWidth="1"/>
+    <col min="3" max="3" width="35.625" style="86" customWidth="1"/>
+    <col min="4" max="4" width="32.625" style="86" customWidth="1"/>
+    <col min="5" max="5" width="20.75" style="88" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="89" customWidth="1"/>
     <col min="7" max="7" width="10" style="90" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="12.44140625" style="90" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="11.44140625" style="90" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="14.6640625" style="90" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="10.6640625" style="91" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="12.6640625" style="91" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="7.5546875" style="91" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="10.6640625" style="91" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="9.109375" style="91" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="7.5546875" style="91" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="10.6640625" style="91" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="9.109375" style="91" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="7.5546875" style="91" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="10.6640625" style="91" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="9.109375" style="91" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="10.33203125" style="91" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="10.33203125" style="92" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="15.88671875" style="92" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="14.109375" style="92" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="7.88671875" style="92" customWidth="1"/>
-    <col min="27" max="27" width="20.5546875" style="93" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="11.33203125" style="94" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="12.33203125" style="86" customWidth="1"/>
-    <col min="30" max="30" width="10.44140625" style="90" customWidth="1"/>
-    <col min="31" max="31" width="11.109375" style="90" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="90" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="11.5" style="90" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="14.625" style="90" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="10.625" style="91" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="12.625" style="91" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="7.5" style="91" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="10.625" style="91" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9.125" style="91" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="7.5" style="91" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="10.625" style="91" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="9.125" style="91" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="7.5" style="91" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="10.625" style="91" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="9.125" style="91" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="10.375" style="91" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="10.375" style="92" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="15.875" style="92" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="14.125" style="92" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="7.875" style="92" customWidth="1"/>
+    <col min="27" max="27" width="20.5" style="93" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="11.375" style="94" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="12.375" style="86" customWidth="1"/>
+    <col min="30" max="30" width="10.5" style="90" customWidth="1"/>
+    <col min="31" max="31" width="11.125" style="90" customWidth="1"/>
     <col min="32" max="32" width="6" style="90" customWidth="1"/>
     <col min="33" max="33" width="7" style="91" customWidth="1"/>
-    <col min="34" max="34" width="13.5546875" style="90" customWidth="1"/>
-    <col min="35" max="35" width="6.88671875" style="90" customWidth="1"/>
-    <col min="36" max="36" width="6.5546875" style="90" customWidth="1"/>
-    <col min="37" max="37" width="7.88671875" style="90" customWidth="1"/>
+    <col min="34" max="34" width="13.5" style="90" customWidth="1"/>
+    <col min="35" max="35" width="6.875" style="90" customWidth="1"/>
+    <col min="36" max="36" width="6.5" style="90" customWidth="1"/>
+    <col min="37" max="37" width="7.875" style="90" customWidth="1"/>
     <col min="38" max="38" width="4" style="91" customWidth="1"/>
-    <col min="39" max="39" width="5.6640625" style="90" customWidth="1"/>
+    <col min="39" max="39" width="5.625" style="90" customWidth="1"/>
     <col min="40" max="40" width="20" style="86" customWidth="1"/>
-    <col min="41" max="41" width="11.6640625" style="86" customWidth="1"/>
+    <col min="41" max="41" width="11.625" style="86" customWidth="1"/>
     <col min="42" max="264" width="9" style="86" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:264" s="85" customFormat="1" ht="28.8">
+    <row r="1" spans="1:264" s="85" customFormat="1" ht="27">
       <c r="A1" s="95" t="s">
         <v>75</v>
       </c>
@@ -21734,7 +21734,7 @@
       <c r="JC1" s="199"/>
       <c r="JD1" s="199"/>
     </row>
-    <row r="2" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="2" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A2" s="98">
         <v>1</v>
       </c>
@@ -22037,7 +22037,7 @@
       <c r="JC2" s="115"/>
       <c r="JD2" s="115"/>
     </row>
-    <row r="3" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="3" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A3" s="98">
         <v>2</v>
       </c>
@@ -22340,7 +22340,7 @@
       <c r="JC3" s="115"/>
       <c r="JD3" s="115"/>
     </row>
-    <row r="4" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="4" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A4" s="98">
         <v>3</v>
       </c>
@@ -22643,7 +22643,7 @@
       <c r="JC4" s="115"/>
       <c r="JD4" s="115"/>
     </row>
-    <row r="5" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="5" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A5" s="98">
         <v>4</v>
       </c>
@@ -22946,7 +22946,7 @@
       <c r="JC5" s="115"/>
       <c r="JD5" s="115"/>
     </row>
-    <row r="6" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="6" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A6" s="98">
         <v>5</v>
       </c>
@@ -23249,7 +23249,7 @@
       <c r="JC6" s="115"/>
       <c r="JD6" s="115"/>
     </row>
-    <row r="7" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="7" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A7" s="98">
         <v>6</v>
       </c>
@@ -23552,7 +23552,7 @@
       <c r="JC7" s="115"/>
       <c r="JD7" s="115"/>
     </row>
-    <row r="8" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="8" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A8" s="98">
         <v>7</v>
       </c>
@@ -23855,7 +23855,7 @@
       <c r="JC8" s="115"/>
       <c r="JD8" s="115"/>
     </row>
-    <row r="9" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="9" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A9" s="98">
         <v>8</v>
       </c>
@@ -24158,7 +24158,7 @@
       <c r="JC9" s="115"/>
       <c r="JD9" s="115"/>
     </row>
-    <row r="10" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="10" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A10" s="98">
         <v>9</v>
       </c>
@@ -24461,7 +24461,7 @@
       <c r="JC10" s="115"/>
       <c r="JD10" s="115"/>
     </row>
-    <row r="11" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="11" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A11" s="98">
         <v>10</v>
       </c>
@@ -24764,7 +24764,7 @@
       <c r="JC11" s="115"/>
       <c r="JD11" s="115"/>
     </row>
-    <row r="12" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="12" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A12" s="98">
         <v>11</v>
       </c>
@@ -25067,7 +25067,7 @@
       <c r="JC12" s="115"/>
       <c r="JD12" s="115"/>
     </row>
-    <row r="13" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="13" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A13" s="98">
         <v>12</v>
       </c>
@@ -25370,7 +25370,7 @@
       <c r="JC13" s="115"/>
       <c r="JD13" s="115"/>
     </row>
-    <row r="14" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="14" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A14" s="98">
         <v>13</v>
       </c>
@@ -25673,7 +25673,7 @@
       <c r="JC14" s="115"/>
       <c r="JD14" s="115"/>
     </row>
-    <row r="15" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="15" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A15" s="98">
         <v>14</v>
       </c>
@@ -25976,7 +25976,7 @@
       <c r="JC15" s="115"/>
       <c r="JD15" s="115"/>
     </row>
-    <row r="16" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="16" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A16" s="98">
         <v>15</v>
       </c>
@@ -26279,7 +26279,7 @@
       <c r="JC16" s="115"/>
       <c r="JD16" s="115"/>
     </row>
-    <row r="17" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="17" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A17" s="98">
         <v>16</v>
       </c>
@@ -26582,7 +26582,7 @@
       <c r="JC17" s="115"/>
       <c r="JD17" s="115"/>
     </row>
-    <row r="18" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="18" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A18" s="98">
         <v>17</v>
       </c>
@@ -26885,7 +26885,7 @@
       <c r="JC18" s="115"/>
       <c r="JD18" s="115"/>
     </row>
-    <row r="19" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="19" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A19" s="98">
         <v>18</v>
       </c>
@@ -27188,7 +27188,7 @@
       <c r="JC19" s="115"/>
       <c r="JD19" s="115"/>
     </row>
-    <row r="20" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="20" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A20" s="98">
         <v>19</v>
       </c>
@@ -27491,7 +27491,7 @@
       <c r="JC20" s="115"/>
       <c r="JD20" s="115"/>
     </row>
-    <row r="21" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="21" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A21" s="98">
         <v>20</v>
       </c>
@@ -27794,7 +27794,7 @@
       <c r="JC21" s="115"/>
       <c r="JD21" s="115"/>
     </row>
-    <row r="22" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="22" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A22" s="98">
         <v>21</v>
       </c>
@@ -28097,7 +28097,7 @@
       <c r="JC22" s="115"/>
       <c r="JD22" s="115"/>
     </row>
-    <row r="23" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="23" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A23" s="98">
         <v>22</v>
       </c>
@@ -28400,7 +28400,7 @@
       <c r="JC23" s="115"/>
       <c r="JD23" s="115"/>
     </row>
-    <row r="24" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="24" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A24" s="98">
         <v>23</v>
       </c>
@@ -28703,7 +28703,7 @@
       <c r="JC24" s="115"/>
       <c r="JD24" s="115"/>
     </row>
-    <row r="25" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="25" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A25" s="98">
         <v>24</v>
       </c>
@@ -29006,7 +29006,7 @@
       <c r="JC25" s="115"/>
       <c r="JD25" s="115"/>
     </row>
-    <row r="26" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="26" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A26" s="98">
         <v>25</v>
       </c>
@@ -29309,7 +29309,7 @@
       <c r="JC26" s="115"/>
       <c r="JD26" s="115"/>
     </row>
-    <row r="27" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="27" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A27" s="98">
         <v>26</v>
       </c>
@@ -29612,7 +29612,7 @@
       <c r="JC27" s="115"/>
       <c r="JD27" s="115"/>
     </row>
-    <row r="28" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="28" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A28" s="98">
         <v>27</v>
       </c>
@@ -29915,7 +29915,7 @@
       <c r="JC28" s="115"/>
       <c r="JD28" s="115"/>
     </row>
-    <row r="29" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="29" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A29" s="98">
         <v>28</v>
       </c>
@@ -30218,7 +30218,7 @@
       <c r="JC29" s="115"/>
       <c r="JD29" s="115"/>
     </row>
-    <row r="30" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="30" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A30" s="98">
         <v>29</v>
       </c>
@@ -30521,7 +30521,7 @@
       <c r="JC30" s="115"/>
       <c r="JD30" s="115"/>
     </row>
-    <row r="31" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="31" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A31" s="98">
         <v>30</v>
       </c>
@@ -30824,7 +30824,7 @@
       <c r="JC31" s="115"/>
       <c r="JD31" s="115"/>
     </row>
-    <row r="32" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="32" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A32" s="98">
         <v>31</v>
       </c>
@@ -31127,7 +31127,7 @@
       <c r="JC32" s="115"/>
       <c r="JD32" s="115"/>
     </row>
-    <row r="33" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="33" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A33" s="98">
         <v>32</v>
       </c>
@@ -31430,7 +31430,7 @@
       <c r="JC33" s="115"/>
       <c r="JD33" s="115"/>
     </row>
-    <row r="34" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="34" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A34" s="98">
         <v>33</v>
       </c>
@@ -31733,7 +31733,7 @@
       <c r="JC34" s="115"/>
       <c r="JD34" s="115"/>
     </row>
-    <row r="35" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="35" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A35" s="98">
         <v>34</v>
       </c>
@@ -32036,7 +32036,7 @@
       <c r="JC35" s="115"/>
       <c r="JD35" s="115"/>
     </row>
-    <row r="36" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="36" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A36" s="98">
         <v>35</v>
       </c>
@@ -32339,7 +32339,7 @@
       <c r="JC36" s="115"/>
       <c r="JD36" s="115"/>
     </row>
-    <row r="37" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="37" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A37" s="98">
         <v>36</v>
       </c>
@@ -32642,7 +32642,7 @@
       <c r="JC37" s="115"/>
       <c r="JD37" s="115"/>
     </row>
-    <row r="38" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="38" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A38" s="98">
         <v>37</v>
       </c>
@@ -32945,7 +32945,7 @@
       <c r="JC38" s="115"/>
       <c r="JD38" s="115"/>
     </row>
-    <row r="39" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="39" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A39" s="98">
         <v>38</v>
       </c>
@@ -33248,7 +33248,7 @@
       <c r="JC39" s="115"/>
       <c r="JD39" s="115"/>
     </row>
-    <row r="40" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="40" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A40" s="98">
         <v>39</v>
       </c>
@@ -33551,7 +33551,7 @@
       <c r="JC40" s="115"/>
       <c r="JD40" s="115"/>
     </row>
-    <row r="41" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="41" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A41" s="98">
         <v>40</v>
       </c>
@@ -33854,7 +33854,7 @@
       <c r="JC41" s="115"/>
       <c r="JD41" s="115"/>
     </row>
-    <row r="42" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="42" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A42" s="98">
         <v>41</v>
       </c>
@@ -34157,7 +34157,7 @@
       <c r="JC42" s="115"/>
       <c r="JD42" s="115"/>
     </row>
-    <row r="43" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="43" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A43" s="98">
         <v>42</v>
       </c>
@@ -34460,7 +34460,7 @@
       <c r="JC43" s="115"/>
       <c r="JD43" s="115"/>
     </row>
-    <row r="44" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="44" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A44" s="98">
         <v>43</v>
       </c>
@@ -34763,7 +34763,7 @@
       <c r="JC44" s="115"/>
       <c r="JD44" s="115"/>
     </row>
-    <row r="45" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="45" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A45" s="98">
         <v>44</v>
       </c>
@@ -35066,7 +35066,7 @@
       <c r="JC45" s="115"/>
       <c r="JD45" s="115"/>
     </row>
-    <row r="46" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="46" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A46" s="98">
         <v>45</v>
       </c>
@@ -35369,7 +35369,7 @@
       <c r="JC46" s="115"/>
       <c r="JD46" s="115"/>
     </row>
-    <row r="47" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="47" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A47" s="98">
         <v>46</v>
       </c>
@@ -35672,7 +35672,7 @@
       <c r="JC47" s="115"/>
       <c r="JD47" s="115"/>
     </row>
-    <row r="48" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="48" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A48" s="98">
         <v>47</v>
       </c>
@@ -35975,7 +35975,7 @@
       <c r="JC48" s="115"/>
       <c r="JD48" s="115"/>
     </row>
-    <row r="49" spans="1:264" s="43" customFormat="1" ht="21.6">
+    <row r="49" spans="1:264" s="43" customFormat="1" ht="12">
       <c r="A49" s="98">
         <v>48</v>
       </c>
@@ -36297,9 +36297,9 @@
       <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="20"/>
+    <col min="1" max="16384" width="8.875" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="66" customFormat="1" ht="14.25" customHeight="1">
@@ -36339,7 +36339,7 @@
       <c r="AB1" s="220"/>
       <c r="AC1" s="220"/>
     </row>
-    <row r="2" spans="1:29" s="66" customFormat="1" ht="19.2">
+    <row r="2" spans="1:29" s="66" customFormat="1" ht="21">
       <c r="A2" s="67" t="s">
         <v>38</v>
       </c>
@@ -36428,7 +36428,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="66" customFormat="1" ht="48">
+    <row r="3" spans="1:29" s="66" customFormat="1" ht="52.5">
       <c r="A3" s="70" t="str">
         <f>项目信息!C5</f>
         <v>郑州3</v>
@@ -36510,7 +36510,7 @@
       </c>
       <c r="AC3" s="82"/>
     </row>
-    <row r="4" spans="1:29" s="66" customFormat="1" ht="48">
+    <row r="4" spans="1:29" s="66" customFormat="1" ht="52.5">
       <c r="A4" s="70" t="str">
         <f>项目信息!C5</f>
         <v>郑州3</v>
@@ -36592,7 +36592,7 @@
       </c>
       <c r="AC4" s="82"/>
     </row>
-    <row r="5" spans="1:29" s="66" customFormat="1" ht="48">
+    <row r="5" spans="1:29" s="66" customFormat="1" ht="42">
       <c r="A5" s="70" t="str">
         <f>项目信息!C5</f>
         <v>郑州3</v>
@@ -36674,7 +36674,7 @@
       </c>
       <c r="AC5" s="82"/>
     </row>
-    <row r="6" spans="1:29" s="66" customFormat="1" ht="48">
+    <row r="6" spans="1:29" s="66" customFormat="1" ht="42">
       <c r="A6" s="70" t="str">
         <f>项目信息!C5</f>
         <v>郑州3</v>
@@ -36771,25 +36771,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10" style="47" customWidth="1"/>
     <col min="2" max="2" width="36" style="47" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="47" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="47" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="47" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="47" customWidth="1"/>
     <col min="5" max="5" width="20" style="47" customWidth="1"/>
     <col min="6" max="6" width="11" style="47" customWidth="1"/>
     <col min="7" max="7" width="12" style="47" customWidth="1"/>
     <col min="8" max="8" width="10" style="47" customWidth="1"/>
     <col min="9" max="9" width="13" style="47" customWidth="1"/>
-    <col min="10" max="11" width="13.6640625" style="47" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" style="47" customWidth="1"/>
+    <col min="10" max="11" width="13.625" style="47" customWidth="1"/>
+    <col min="12" max="12" width="10.625" style="47" customWidth="1"/>
     <col min="13" max="13" width="26" style="47" customWidth="1"/>
-    <col min="14" max="16384" width="8.6640625" style="47"/>
+    <col min="14" max="16384" width="8.625" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1">
@@ -39520,12 +39520,12 @@
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="14" width="11.6640625" customWidth="1"/>
+    <col min="1" max="14" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="28.8">
+    <row r="1" spans="1:14" ht="27">
       <c r="A1" s="39" t="s">
         <v>712</v>
       </c>
@@ -39569,7 +39569,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="43" customFormat="1" ht="11.4">
+    <row r="2" spans="1:14" s="43" customFormat="1" ht="12">
       <c r="A2" s="44" t="s">
         <v>725</v>
       </c>
@@ -39646,14 +39646,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a9fce7f6-b2fa-4abf-bccc-9105804b1a8f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a6598b5a-f053-4765-b33b-4570b164eeea" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -39874,15 +39872,44 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a9fce7f6-b2fa-4abf-bccc-9105804b1a8f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a6598b5a-f053-4765-b33b-4570b164eeea" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D85166B-068B-4EF9-ACE2-1BB8C6FE521A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50DDA352-A54C-463E-8D26-EE95918DB1C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a9fce7f6-b2fa-4abf-bccc-9105804b1a8f"/>
+    <ds:schemaRef ds:uri="a6598b5a-f053-4765-b33b-4570b164eeea"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2889F554-92C1-435B-A7B4-9C5E151F206B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -39891,16 +39918,4 @@
     <ds:schemaRef ds:uri="a6598b5a-f053-4765-b33b-4570b164eeea"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50DDA352-A54C-463E-8D26-EE95918DB1C7}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D85166B-068B-4EF9-ACE2-1BB8C6FE521A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/00-天翼云集成实施基本信息表模板(网络和服务器设备表含公式)20230101(1).xlsx
+++ b/docs/00-天翼云集成实施基本信息表模板(网络和服务器设备表含公式)20230101(1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingz\Documents\GitHub\jw3\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A103A545-C558-4D0B-87DD-A178A51398C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEF40A8-14FB-4785-A766-7A76CB0100FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="693" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="693" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明（勿修改）" sheetId="21" r:id="rId1"/>
@@ -310,7 +310,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="930">
   <si>
     <t>模板名称</t>
   </si>
@@ -3935,6 +3935,18 @@
   </si>
   <si>
     <t>OS_CN2</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>380</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP 380</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠普</t>
     <phoneticPr fontId="45" type="noConversion"/>
   </si>
 </sst>
@@ -6177,7 +6189,7 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="221">
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6796,6 +6808,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="17" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9168,8 +9183,8 @@
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -9395,7 +9410,7 @@
         <v>56</v>
       </c>
       <c r="C16" s="115">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D16" s="111" t="s">
         <v>57</v>
@@ -9473,8 +9488,8 @@
   </sheetPr>
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
@@ -9588,21 +9603,21 @@
         <v>88</v>
       </c>
       <c r="H2" s="125" t="s">
-        <v>89</v>
+        <v>929</v>
       </c>
       <c r="I2" s="126" t="s">
-        <v>90</v>
+        <v>927</v>
       </c>
       <c r="J2" s="150" t="str">
         <f>D2&amp;"-"&amp;I2&amp;IF(C2="","","-"&amp;C2)</f>
-        <v>宿主机服务器-ZXCLOUD R5300 G4X</v>
+        <v>宿主机服务器-380</v>
       </c>
       <c r="K2" s="158" t="str" cm="1">
         <f t="array" ref="K2">IF(_xlfn.IFS(_xlfn.IFNA(VLOOKUP(J2,服务器!$D:$D,1,FALSE),1)=1,1,EXACT(VLOOKUP(J2,服务器!$D:$D,1,FALSE),J2)=FALSE,1,EXACT(VLOOKUP(J2,服务器!$D:$D,1,FALSE),J2)=TRUE,FALSE),"请修改设备名称列,或者设备不存在","OK")</f>
         <v>OK</v>
       </c>
       <c r="L2" s="160" t="s">
-        <v>91</v>
+        <v>928</v>
       </c>
       <c r="M2" s="160" t="s">
         <v>92</v>
@@ -11834,7 +11849,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D39" sqref="D39"/>
+      <selection pane="topRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" customHeight="1"/>
@@ -14050,8 +14065,8 @@
   </sheetPr>
   <dimension ref="A1:IN49"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
@@ -14394,10 +14409,10 @@
       </c>
       <c r="D2" s="63" t="str">
         <f>IF(LEN(B2)-LEN(SUBSTITUTE(B2,"-",""))&lt;&gt;1,MID(B2,1,FIND("$",SUBSTITUTE(B2,"-","$",LEN(B2)-LEN(SUBSTITUTE(B2,"-",""))),1)-1),MID(B2,1,FIND("-",B2,1)-1))&amp;"-"&amp;E2&amp;IF(X2="","","-"&amp;X2)</f>
-        <v>宿主机服务器-ZXCLOUD R5300 G4X</v>
-      </c>
-      <c r="E2" s="63" t="s">
-        <v>90</v>
+        <v>宿主机服务器-380</v>
+      </c>
+      <c r="E2" s="220" t="s">
+        <v>927</v>
       </c>
       <c r="F2" s="65"/>
       <c r="G2" s="66">
@@ -14683,10 +14698,10 @@
       </c>
       <c r="D3" s="63" t="str">
         <f t="shared" ref="D3:D49" si="2">IF(LEN(B3)-LEN(SUBSTITUTE(B3,"-",""))&lt;&gt;1,MID(B3,1,FIND("$",SUBSTITUTE(B3,"-","$",LEN(B3)-LEN(SUBSTITUTE(B3,"-",""))),1)-1),MID(B3,1,FIND("-",B3,1)-1))&amp;"-"&amp;E3</f>
-        <v>宿主机服务器-ZXCLOUD R5300 G4X</v>
-      </c>
-      <c r="E3" s="63" t="s">
-        <v>90</v>
+        <v>宿主机服务器-380</v>
+      </c>
+      <c r="E3" s="220" t="s">
+        <v>927</v>
       </c>
       <c r="F3" s="65"/>
       <c r="G3" s="66">
@@ -14972,10 +14987,10 @@
       </c>
       <c r="D4" s="63" t="str">
         <f t="shared" si="2"/>
-        <v>宿主机服务器-ZXCLOUD R5300 G4X</v>
-      </c>
-      <c r="E4" s="63" t="s">
-        <v>90</v>
+        <v>宿主机服务器-380</v>
+      </c>
+      <c r="E4" s="220" t="s">
+        <v>927</v>
       </c>
       <c r="F4" s="65"/>
       <c r="G4" s="66">
@@ -15261,10 +15276,10 @@
       </c>
       <c r="D5" s="63" t="str">
         <f t="shared" si="2"/>
-        <v>宿主机服务器-ZXCLOUD R5300 G4X</v>
-      </c>
-      <c r="E5" s="63" t="s">
-        <v>90</v>
+        <v>宿主机服务器-380</v>
+      </c>
+      <c r="E5" s="220" t="s">
+        <v>927</v>
       </c>
       <c r="F5" s="65"/>
       <c r="G5" s="66">
@@ -15550,10 +15565,10 @@
       </c>
       <c r="D6" s="63" t="str">
         <f t="shared" si="2"/>
-        <v>宿主机服务器-ZXCLOUD R5300 G4X</v>
-      </c>
-      <c r="E6" s="63" t="s">
-        <v>90</v>
+        <v>宿主机服务器-380</v>
+      </c>
+      <c r="E6" s="220" t="s">
+        <v>927</v>
       </c>
       <c r="F6" s="65"/>
       <c r="G6" s="66">
@@ -15839,10 +15854,10 @@
       </c>
       <c r="D7" s="63" t="str">
         <f t="shared" si="2"/>
-        <v>宿主机服务器-ZXCLOUD R5300 G4X</v>
-      </c>
-      <c r="E7" s="63" t="s">
-        <v>90</v>
+        <v>宿主机服务器-380</v>
+      </c>
+      <c r="E7" s="220" t="s">
+        <v>927</v>
       </c>
       <c r="F7" s="65"/>
       <c r="G7" s="66">
@@ -16128,10 +16143,10 @@
       </c>
       <c r="D8" s="63" t="str">
         <f t="shared" si="2"/>
-        <v>宿主机服务器-ZXCLOUD R5300 G4X</v>
-      </c>
-      <c r="E8" s="63" t="s">
-        <v>90</v>
+        <v>宿主机服务器-380</v>
+      </c>
+      <c r="E8" s="220" t="s">
+        <v>927</v>
       </c>
       <c r="F8" s="65"/>
       <c r="G8" s="66">
@@ -16417,10 +16432,10 @@
       </c>
       <c r="D9" s="63" t="str">
         <f t="shared" si="2"/>
-        <v>宿主机服务器-ZXCLOUD R5300 G4X</v>
-      </c>
-      <c r="E9" s="63" t="s">
-        <v>90</v>
+        <v>宿主机服务器-380</v>
+      </c>
+      <c r="E9" s="220" t="s">
+        <v>927</v>
       </c>
       <c r="F9" s="65"/>
       <c r="G9" s="66">
@@ -16706,10 +16721,10 @@
       </c>
       <c r="D10" s="63" t="str">
         <f t="shared" si="2"/>
-        <v>宿主机服务器-ZXCLOUD R5300 G4X</v>
-      </c>
-      <c r="E10" s="63" t="s">
-        <v>90</v>
+        <v>宿主机服务器-380</v>
+      </c>
+      <c r="E10" s="220" t="s">
+        <v>927</v>
       </c>
       <c r="F10" s="65"/>
       <c r="G10" s="66">
@@ -31406,7 +31421,7 @@
   </sheetPr>
   <dimension ref="A1:Y183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
